--- a/Многомерный анализ и прогнозирование/лаб 2/Данные.xlsx
+++ b/Многомерный анализ и прогнозирование/лаб 2/Данные.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="222">
   <si>
     <t>Алтайский край</t>
   </si>
@@ -629,12 +629,107 @@
   <si>
     <t>функция</t>
   </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>G_6:6</t>
+  </si>
+  <si>
+    <t>G_4:4</t>
+  </si>
+  <si>
+    <t>G_2:2</t>
+  </si>
+  <si>
+    <t>G_3:3</t>
+  </si>
+  <si>
+    <t>G_5:5</t>
+  </si>
+  <si>
+    <t>G_7:7</t>
+  </si>
+  <si>
+    <t>G_1:1</t>
+  </si>
+  <si>
+    <t>Observed Махаланобис</t>
+  </si>
+  <si>
+    <t>Махал1</t>
+  </si>
+  <si>
+    <t>Махал2</t>
+  </si>
+  <si>
+    <t>Махал3</t>
+  </si>
+  <si>
+    <t>Махал4</t>
+  </si>
+  <si>
+    <t>Махал5</t>
+  </si>
+  <si>
+    <t>Махал6</t>
+  </si>
+  <si>
+    <t>Махал7</t>
+  </si>
+  <si>
+    <t>Минимум Махаланобис</t>
+  </si>
+  <si>
+    <t>Махаланобис классификация</t>
+  </si>
+  <si>
+    <t>априор</t>
+  </si>
+  <si>
+    <t>априор1</t>
+  </si>
+  <si>
+    <t>априор2</t>
+  </si>
+  <si>
+    <t>априор3</t>
+  </si>
+  <si>
+    <t>априор4</t>
+  </si>
+  <si>
+    <t>априор5</t>
+  </si>
+  <si>
+    <t>априор6</t>
+  </si>
+  <si>
+    <t>априор7</t>
+  </si>
+  <si>
+    <t>априор макс</t>
+  </si>
+  <si>
+    <t>Априор Классификация</t>
+  </si>
+  <si>
+    <t>Точность Махал</t>
+  </si>
+  <si>
+    <t>Точность Априор</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +778,24 @@
       <color theme="0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -725,13 +838,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -789,6 +905,52 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -803,20 +965,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Итоги" xfId="3"/>
+    <cellStyle name="Обычный_Итоги_1" xfId="5"/>
     <cellStyle name="Обычный_полная связь" xfId="1"/>
     <cellStyle name="Обычный_Уорд" xfId="2"/>
+    <cellStyle name="Процентный" xfId="4" builtinId="5"/>
+    <cellStyle name="Финансовый_Итоги" xfId="6"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="47">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -835,12 +1053,18 @@
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -859,6 +1083,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1389,7 +1614,121 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2482,11 +2821,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1788102848"/>
-        <c:axId val="-1788091424"/>
+        <c:axId val="1782656768"/>
+        <c:axId val="1782658400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1788102848"/>
+        <c:axId val="1782656768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,7 +2868,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1788091424"/>
+        <c:crossAx val="1782658400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2537,7 +2876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1788091424"/>
+        <c:axId val="1782658400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2927,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1788102848"/>
+        <c:crossAx val="1782656768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3208,11 +3547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1789840720"/>
-        <c:axId val="-1789839088"/>
+        <c:axId val="1782655680"/>
+        <c:axId val="1782660576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1789840720"/>
+        <c:axId val="1782655680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3255,7 +3594,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1789839088"/>
+        <c:crossAx val="1782660576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3263,7 +3602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1789839088"/>
+        <c:axId val="1782660576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,7 +3653,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1789840720"/>
+        <c:crossAx val="1782655680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4140,11 +4479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1789837456"/>
-        <c:axId val="-1494477888"/>
+        <c:axId val="1782663840"/>
+        <c:axId val="1782652416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1789837456"/>
+        <c:axId val="1782663840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4526,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494477888"/>
+        <c:crossAx val="1782652416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4195,7 +4534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1494477888"/>
+        <c:axId val="1782652416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4246,7 +4585,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1789837456"/>
+        <c:crossAx val="1782663840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5306,11 +5645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1494477344"/>
-        <c:axId val="-1494476800"/>
+        <c:axId val="1782652960"/>
+        <c:axId val="1782657856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1494477344"/>
+        <c:axId val="1782652960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5353,7 +5692,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494476800"/>
+        <c:crossAx val="1782657856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5361,7 +5700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1494476800"/>
+        <c:axId val="1782657856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,7 +5751,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1494477344"/>
+        <c:crossAx val="1782652960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10064,7 +10403,7 @@
     <tableColumn id="10" name="X9" totalsRowFunction="average"/>
     <tableColumn id="11" name="CASE_NO " totalsRowFunction="count"/>
     <tableColumn id="12" name="CLUSTER K-means"/>
-    <tableColumn id="14" name="Расст^2" totalsRowFunction="sum" dataDxfId="36">
+    <tableColumn id="14" name="Расст^2" totalsRowFunction="sum" dataDxfId="46">
       <calculatedColumnFormula>SUMXMY2(Таблица1[[#This Row],[X1]:[X9]],Таблица1[[#Totals],[X1]:[X9]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="DISTANCE"/>
@@ -10074,32 +10413,68 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:Q87" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="Обычный_Итоги" dataCellStyle="Обычный_Итоги">
-  <autoFilter ref="A1:Q86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:AM87" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:AM86"/>
   <sortState ref="A20:P85">
     <sortCondition ref="O1:O86"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" name="Регион" dataDxfId="33" totalsRowDxfId="16" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="32" totalsRowDxfId="15" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="31" totalsRowDxfId="14" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="13" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="12" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="11" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="10" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="9" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="25" totalsRowDxfId="8" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="7" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="6" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="5" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="4" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="3" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="2" dataCellStyle="Обычный_Итоги">
+  <tableColumns count="39">
+    <tableColumn id="1" name="Регион" dataDxfId="43" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="19"/>
+    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="18"/>
+    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="17"/>
+    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="16"/>
+    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="38" totalsRowDxfId="15"/>
+    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="37" totalsRowDxfId="14"/>
+    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="13"/>
+    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="35" totalsRowDxfId="12"/>
+    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="34" totalsRowDxfId="11"/>
+    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="33" totalsRowDxfId="10"/>
+    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="9"/>
+    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="31" totalsRowDxfId="8"/>
+    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="7"/>
+    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="6">
       <calculatedColumnFormula>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="1" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="0" dataCellStyle="Обычный_Итоги">
+    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="5"/>
+    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="4">
       <totalsRowFormula>(Таблица2[[#Totals],[обучающая выборка]]-1)/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" name="Observed Махаланобис" totalsRowDxfId="3"/>
+    <tableColumn id="21" name="Махал1"/>
+    <tableColumn id="22" name="Махал2"/>
+    <tableColumn id="23" name="Махал3"/>
+    <tableColumn id="24" name="Махал4"/>
+    <tableColumn id="25" name="Махал5"/>
+    <tableColumn id="26" name="Махал6"/>
+    <tableColumn id="27" name="Махал7"/>
+    <tableColumn id="28" name="Минимум Махаланобис" dataDxfId="26">
+      <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</calculatedColumnFormula>
+      <totalsRowFormula>Таблица2[[#Totals],[Точность Махал]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="38" name="Точность Махал" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="2" dataCellStyle="Финансовый_Итоги">
+      <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="априор"/>
+    <tableColumn id="20" name="априор1"/>
+    <tableColumn id="30" name="априор2"/>
+    <tableColumn id="31" name="априор3"/>
+    <tableColumn id="32" name="априор4"/>
+    <tableColumn id="33" name="априор5"/>
+    <tableColumn id="34" name="априор6"/>
+    <tableColumn id="35" name="априор7"/>
+    <tableColumn id="36" name="априор макс" dataDxfId="25">
+      <calculatedColumnFormula>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="37" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="1">
+      <calculatedColumnFormula>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</calculatedColumnFormula>
+      <totalsRowFormula>Таблица2[[#Totals],[Точность Априор]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="39" name="Точность Априор" totalsRowFunction="sum" dataDxfId="23">
+      <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10408,21 +10783,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
       <c r="N1" t="s">
         <v>85</v>
       </c>
@@ -10452,7 +10827,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="2" t="s">
         <v>95</v>
       </c>
@@ -13823,21 +14198,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="N1" t="s">
         <v>85</v>
       </c>
@@ -13867,7 +14242,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="5" t="s">
         <v>95</v>
       </c>
@@ -24871,10 +25246,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N93" sqref="N93"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA87" sqref="AA87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24884,9 +25259,14 @@
     <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="31"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>181</v>
       </c>
@@ -24932,14 +25312,80 @@
       <c r="O1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="35" t="s">
         <v>190</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK1" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL1" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM1" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -24986,12 +25432,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.393886853659148</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" s="26">
+        <v>1730.4215374864416</v>
+      </c>
+      <c r="T2" s="26">
+        <v>246.12728906731968</v>
+      </c>
+      <c r="U2" s="26">
+        <v>137.44586254237413</v>
+      </c>
+      <c r="V2" s="26">
+        <v>108.2163375777701</v>
+      </c>
+      <c r="W2" s="26">
+        <v>568.82261690165421</v>
+      </c>
+      <c r="X2" s="26">
+        <v>94.773525477397527</v>
+      </c>
+      <c r="Y2" s="26">
+        <v>139.86244344462204</v>
+      </c>
+      <c r="Z2" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>94.773525477397527</v>
+      </c>
+      <c r="AA2" s="47">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB2" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="32">
+        <v>1.202658594997412E-10</v>
+      </c>
+      <c r="AG2" s="32">
+        <v>1.0698257604326495E-3</v>
+      </c>
+      <c r="AH2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="32">
+        <v>0.9989301740294908</v>
+      </c>
+      <c r="AJ2" s="32">
+        <v>8.9810785040591296E-11</v>
+      </c>
+      <c r="AK2" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.9989301740294908</v>
+      </c>
+      <c r="AL2" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM2" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -25038,12 +25556,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>9.9102538892762109</v>
       </c>
-      <c r="P3" s="21"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" s="26">
+        <v>972.86981266267253</v>
+      </c>
+      <c r="T3" s="26">
+        <v>254.26935686512155</v>
+      </c>
+      <c r="U3" s="26">
+        <v>329.04291270234376</v>
+      </c>
+      <c r="V3" s="26">
+        <v>81.812626864309678</v>
+      </c>
+      <c r="W3" s="26">
+        <v>143.36797225612605</v>
+      </c>
+      <c r="X3" s="26">
+        <v>121.68219806640613</v>
+      </c>
+      <c r="Y3" s="26">
+        <v>80.796723458503948</v>
+      </c>
+      <c r="Z3" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>81.812626864309678</v>
+      </c>
+      <c r="AA3" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB3" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="32">
+        <v>0.49051411931299682</v>
+      </c>
+      <c r="AH3" s="32">
+        <v>5.2725183993291537E-15</v>
+      </c>
+      <c r="AI3" s="32">
+        <v>1.2140502170289332E-9</v>
+      </c>
+      <c r="AJ3" s="32">
+        <v>0.50948587947294766</v>
+      </c>
+      <c r="AK3" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.50948587947294766</v>
+      </c>
+      <c r="AL3" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM3" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>99</v>
       </c>
@@ -25090,12 +25680,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.6904455959238796</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="26">
+        <v>1213.1481536751846</v>
+      </c>
+      <c r="T4" s="26">
+        <v>300.64891479220796</v>
+      </c>
+      <c r="U4" s="26">
+        <v>338.57313045624323</v>
+      </c>
+      <c r="V4" s="26">
+        <v>75.809306420667497</v>
+      </c>
+      <c r="W4" s="26">
+        <v>221.52795491837745</v>
+      </c>
+      <c r="X4" s="26">
+        <v>121.05058479243212</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>62.983503835892328</v>
+      </c>
+      <c r="Z4" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>75.809306420667497</v>
+      </c>
+      <c r="AA4" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB4" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="32">
+        <v>2.6175444347516326E-3</v>
+      </c>
+      <c r="AH4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="32">
+        <v>4.4159872394810937E-13</v>
+      </c>
+      <c r="AJ4" s="32">
+        <v>0.99738245556480665</v>
+      </c>
+      <c r="AK4" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99738245556480665</v>
+      </c>
+      <c r="AL4" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM4" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -25142,14 +25804,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.2045060475669156</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="36">
         <v>6</v>
       </c>
       <c r="Q5" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S5" s="26">
+        <v>1581.596738189282</v>
+      </c>
+      <c r="T5" s="26">
+        <v>107.73770082977065</v>
+      </c>
+      <c r="U5" s="26">
+        <v>80.19877657730116</v>
+      </c>
+      <c r="V5" s="26">
+        <v>25.318749378854612</v>
+      </c>
+      <c r="W5" s="26">
+        <v>385.40731128610565</v>
+      </c>
+      <c r="X5" s="26">
+        <v>3.7822132263098132</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>55.738817303778298</v>
+      </c>
+      <c r="Z5" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>3.7822132263098132</v>
+      </c>
+      <c r="AA5" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB5" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="32">
+        <v>5.9310562448657916E-24</v>
+      </c>
+      <c r="AF5" s="32">
+        <v>5.6641332635467718E-18</v>
+      </c>
+      <c r="AG5" s="32">
+        <v>1.8717159598687677E-5</v>
+      </c>
+      <c r="AH5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="32">
+        <v>0.99998128283750076</v>
+      </c>
+      <c r="AJ5" s="32">
+        <v>2.9005886378224113E-12</v>
+      </c>
+      <c r="AK5" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99998128283750076</v>
+      </c>
+      <c r="AL5" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM5" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -25196,12 +25930,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.5658216998164649</v>
       </c>
-      <c r="P6" s="21"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S6" s="26">
+        <v>1512.2057856210183</v>
+      </c>
+      <c r="T6" s="26">
+        <v>148.13089594388094</v>
+      </c>
+      <c r="U6" s="26">
+        <v>103.34675907558096</v>
+      </c>
+      <c r="V6" s="26">
+        <v>41.280948898913408</v>
+      </c>
+      <c r="W6" s="26">
+        <v>379.402799221046</v>
+      </c>
+      <c r="X6" s="26">
+        <v>24.100843811988998</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>29.119457834814</v>
+      </c>
+      <c r="Z6" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>24.100843811988998</v>
+      </c>
+      <c r="AA6" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB6" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="32">
+        <v>2.4816696681027474E-28</v>
+      </c>
+      <c r="AF6" s="32">
+        <v>1.31672697253367E-18</v>
+      </c>
+      <c r="AG6" s="32">
+        <v>1.5811576026147204E-4</v>
+      </c>
+      <c r="AH6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="32">
+        <v>0.95662142189613175</v>
+      </c>
+      <c r="AJ6" s="32">
+        <v>4.3220462343606658E-2</v>
+      </c>
+      <c r="AK6" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.95662142189613175</v>
+      </c>
+      <c r="AL6" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM6" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -25248,12 +26054,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.7380958792916532</v>
       </c>
-      <c r="P7" s="21"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S7" s="26">
+        <v>1450.4676332067086</v>
+      </c>
+      <c r="T7" s="26">
+        <v>212.58836152032839</v>
+      </c>
+      <c r="U7" s="26">
+        <v>98.453942625912475</v>
+      </c>
+      <c r="V7" s="26">
+        <v>37.257378306970594</v>
+      </c>
+      <c r="W7" s="26">
+        <v>393.50389692362108</v>
+      </c>
+      <c r="X7" s="26">
+        <v>36.612964027650271</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>47.471079750748508</v>
+      </c>
+      <c r="Z7" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>36.612964027650271</v>
+      </c>
+      <c r="AA7" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB7" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>5.0307544568690836E-15</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>0.3911633974378807</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="32">
+        <v>0.60735626370686813</v>
+      </c>
+      <c r="AJ7" s="32">
+        <v>1.4803388552461108E-3</v>
+      </c>
+      <c r="AK7" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.60735626370686813</v>
+      </c>
+      <c r="AL7" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM7" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -25300,12 +26178,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.1448713876240886</v>
       </c>
-      <c r="P8" s="21"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S8" s="26">
+        <v>1463.0816358112822</v>
+      </c>
+      <c r="T8" s="26">
+        <v>197.39967959404942</v>
+      </c>
+      <c r="U8" s="26">
+        <v>146.36274998453212</v>
+      </c>
+      <c r="V8" s="26">
+        <v>30.795705894381996</v>
+      </c>
+      <c r="W8" s="26">
+        <v>358.40818265048273</v>
+      </c>
+      <c r="X8" s="26">
+        <v>40.088917703902581</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>62.216003908645561</v>
+      </c>
+      <c r="Z8" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>30.795705894381996</v>
+      </c>
+      <c r="AA8" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB8" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="32">
+        <v>1.9870683817567803E-26</v>
+      </c>
+      <c r="AG8" s="32">
+        <v>0.98932178715193275</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="32">
+        <v>1.067811986870406E-2</v>
+      </c>
+      <c r="AJ8" s="32">
+        <v>9.2979363108413674E-8</v>
+      </c>
+      <c r="AK8" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.98932178715193275</v>
+      </c>
+      <c r="AL8" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM8" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -25352,14 +26302,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.7703757037394579</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="36">
         <v>6</v>
       </c>
       <c r="Q9" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S9" s="26">
+        <v>1614.8107047873882</v>
+      </c>
+      <c r="T9" s="26">
+        <v>142.67897644341068</v>
+      </c>
+      <c r="U9" s="26">
+        <v>65.969841181799126</v>
+      </c>
+      <c r="V9" s="26">
+        <v>24.748299789520779</v>
+      </c>
+      <c r="W9" s="26">
+        <v>414.94141977950261</v>
+      </c>
+      <c r="X9" s="26">
+        <v>3.3278751054943432</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>45.836834814428727</v>
+      </c>
+      <c r="Z9" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>3.3278751054943432</v>
+      </c>
+      <c r="AA9" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB9" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="32">
+        <v>1.2220013684821618E-31</v>
+      </c>
+      <c r="AF9" s="32">
+        <v>5.5494350152402498E-15</v>
+      </c>
+      <c r="AG9" s="32">
+        <v>1.9835938016691433E-5</v>
+      </c>
+      <c r="AH9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="32">
+        <v>0.99998016373537835</v>
+      </c>
+      <c r="AJ9" s="32">
+        <v>3.2659953608511847E-10</v>
+      </c>
+      <c r="AK9" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99998016373537835</v>
+      </c>
+      <c r="AL9" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM9" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -25406,14 +26428,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.1559908948085287</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="36">
         <v>4</v>
       </c>
       <c r="Q10" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S10" s="26">
+        <v>1406.1603674498419</v>
+      </c>
+      <c r="T10" s="26">
+        <v>184.44297926102169</v>
+      </c>
+      <c r="U10" s="26">
+        <v>178.17687787912371</v>
+      </c>
+      <c r="V10" s="26">
+        <v>6.8809204231512879</v>
+      </c>
+      <c r="W10" s="26">
+        <v>287.51540379938717</v>
+      </c>
+      <c r="X10" s="26">
+        <v>31.062569584684596</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>44.591961717449273</v>
+      </c>
+      <c r="Z10" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>6.8809204231512879</v>
+      </c>
+      <c r="AA10" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB10" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>0.99999368389013898</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>6.3120638347188768E-6</v>
+      </c>
+      <c r="AJ10" s="32">
+        <v>4.0460263220520185E-9</v>
+      </c>
+      <c r="AK10" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999368389013898</v>
+      </c>
+      <c r="AL10" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM10" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -25460,12 +26554,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.7879010546763592</v>
       </c>
-      <c r="P11" s="21"/>
+      <c r="P11" s="36"/>
       <c r="Q11" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S11" s="26">
+        <v>1628.845866177754</v>
+      </c>
+      <c r="T11" s="26">
+        <v>100.94014763852032</v>
+      </c>
+      <c r="U11" s="26">
+        <v>100.80626166448278</v>
+      </c>
+      <c r="V11" s="26">
+        <v>56.498604367904797</v>
+      </c>
+      <c r="W11" s="26">
+        <v>437.86531319719484</v>
+      </c>
+      <c r="X11" s="26">
+        <v>32.424730297380812</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>84.119022490649897</v>
+      </c>
+      <c r="Z11" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>32.424730297380812</v>
+      </c>
+      <c r="AA11" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB11" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="32">
+        <v>2.9434140734635475E-16</v>
+      </c>
+      <c r="AF11" s="32">
+        <v>3.1471999227848965E-16</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>5.2634422011779891E-6</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>0.999994736554491</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>3.3071377623463592E-12</v>
+      </c>
+      <c r="AK11" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.999994736554491</v>
+      </c>
+      <c r="AL11" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM11" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>63</v>
       </c>
@@ -25512,14 +26678,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>19.177326088168495</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="36">
         <v>2</v>
       </c>
       <c r="Q12" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="S12" s="26">
+        <v>1624.0302878184239</v>
+      </c>
+      <c r="T12" s="26">
+        <v>8.5318300256938429</v>
+      </c>
+      <c r="U12" s="26">
+        <v>168.15267214707458</v>
+      </c>
+      <c r="V12" s="26">
+        <v>133.09305989069003</v>
+      </c>
+      <c r="W12" s="26">
+        <v>433.44058296348169</v>
+      </c>
+      <c r="X12" s="26">
+        <v>97.08766806856562</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>207.71546779017712</v>
+      </c>
+      <c r="Z12" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>8.5318300256938429</v>
+      </c>
+      <c r="AA12" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB12" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>3.5804086411138495E-27</v>
+      </c>
+      <c r="AH12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>2.651896759394034E-19</v>
+      </c>
+      <c r="AJ12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL12" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AM12" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -25566,12 +26804,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.609448778618402</v>
       </c>
-      <c r="P13" s="21"/>
+      <c r="P13" s="36"/>
       <c r="Q13" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S13" s="26">
+        <v>1076.7767418589265</v>
+      </c>
+      <c r="T13" s="26">
+        <v>351.86657547223649</v>
+      </c>
+      <c r="U13" s="26">
+        <v>318.47827246332753</v>
+      </c>
+      <c r="V13" s="26">
+        <v>191.40983799846276</v>
+      </c>
+      <c r="W13" s="26">
+        <v>330.2759537552372</v>
+      </c>
+      <c r="X13" s="26">
+        <v>223.30591974831742</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>233.69295902624648</v>
+      </c>
+      <c r="Z13" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>191.40983799846276</v>
+      </c>
+      <c r="AA13" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB13" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="32">
+        <v>6.3882219175884807E-29</v>
+      </c>
+      <c r="AG13" s="32">
+        <v>0.9999998662345625</v>
+      </c>
+      <c r="AH13" s="32">
+        <v>1.7520482104975184E-31</v>
+      </c>
+      <c r="AI13" s="32">
+        <v>1.3335408234364073E-7</v>
+      </c>
+      <c r="AJ13" s="32">
+        <v>4.1135510299728875E-10</v>
+      </c>
+      <c r="AK13" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.9999998662345625</v>
+      </c>
+      <c r="AL13" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM13" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
@@ -25618,12 +26928,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>8.6183786206490058</v>
       </c>
-      <c r="P14" s="21"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S14" s="26">
+        <v>687.44663889437447</v>
+      </c>
+      <c r="T14" s="26">
+        <v>358.21792212616498</v>
+      </c>
+      <c r="U14" s="26">
+        <v>408.7369009425808</v>
+      </c>
+      <c r="V14" s="26">
+        <v>245.91362745630968</v>
+      </c>
+      <c r="W14" s="26">
+        <v>171.6625464022604</v>
+      </c>
+      <c r="X14" s="26">
+        <v>278.58653537422947</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>269.06500317090592</v>
+      </c>
+      <c r="Z14" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>171.6625464022604</v>
+      </c>
+      <c r="AA14" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AB14" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="32">
+        <v>3.0105275283715233E-16</v>
+      </c>
+      <c r="AH14" s="32">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AI14" s="32">
+        <v>2.7224713426524918E-23</v>
+      </c>
+      <c r="AJ14" s="32">
+        <v>1.7671168150870096E-21</v>
+      </c>
+      <c r="AK14" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AL14" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AM14" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -25670,14 +27052,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>0.69999916866320588</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="37">
         <v>6</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S15" s="26">
+        <v>1486.3207228871465</v>
+      </c>
+      <c r="T15" s="26">
+        <v>155.7107914758009</v>
+      </c>
+      <c r="U15" s="26">
+        <v>143.53742270682153</v>
+      </c>
+      <c r="V15" s="26">
+        <v>3.2684147125311935</v>
+      </c>
+      <c r="W15" s="26">
+        <v>323.15677958978142</v>
+      </c>
+      <c r="X15" s="26">
+        <v>8.8914271571161763</v>
+      </c>
+      <c r="Y15" s="26">
+        <v>18.36301693471626</v>
+      </c>
+      <c r="Z15" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>3.2684147125311935</v>
+      </c>
+      <c r="AA15" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB15" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="32">
+        <v>8.1350008460596622E-32</v>
+      </c>
+      <c r="AG15" s="32">
+        <v>0.93636607530549432</v>
+      </c>
+      <c r="AH15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="32">
+        <v>6.3325197801475039E-2</v>
+      </c>
+      <c r="AJ15" s="32">
+        <v>3.0872689303067274E-4</v>
+      </c>
+      <c r="AK15" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.93636607530549432</v>
+      </c>
+      <c r="AL15" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM15" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
@@ -25724,14 +27178,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.8088081469136594</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="36">
         <v>4</v>
       </c>
       <c r="Q16" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S16" s="26">
+        <v>1581.7365999177241</v>
+      </c>
+      <c r="T16" s="26">
+        <v>164.62413890177692</v>
+      </c>
+      <c r="U16" s="26">
+        <v>149.09129301171109</v>
+      </c>
+      <c r="V16" s="26">
+        <v>9.2479325964607408</v>
+      </c>
+      <c r="W16" s="26">
+        <v>376.50194021591977</v>
+      </c>
+      <c r="X16" s="26">
+        <v>11.793969097896539</v>
+      </c>
+      <c r="Y16" s="26">
+        <v>26.765524364114619</v>
+      </c>
+      <c r="Z16" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>9.2479325964607408</v>
+      </c>
+      <c r="AA16" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB16" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="32">
+        <v>8.1731115108600412E-32</v>
+      </c>
+      <c r="AG16" s="32">
+        <v>0.76040908193307122</v>
+      </c>
+      <c r="AH16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="32">
+        <v>0.23951626793285033</v>
+      </c>
+      <c r="AJ16" s="32">
+        <v>7.4650134078465153E-5</v>
+      </c>
+      <c r="AK16" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.76040908193307122</v>
+      </c>
+      <c r="AL16" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM16" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -25778,14 +27304,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.413932537795384</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="36">
         <v>3</v>
       </c>
       <c r="Q17" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="S17" s="26">
+        <v>1834.8186886993979</v>
+      </c>
+      <c r="T17" s="26">
+        <v>204.6614532989943</v>
+      </c>
+      <c r="U17" s="26">
+        <v>4.6984752559844027</v>
+      </c>
+      <c r="V17" s="26">
+        <v>131.03022813209648</v>
+      </c>
+      <c r="W17" s="26">
+        <v>624.28116370971316</v>
+      </c>
+      <c r="X17" s="26">
+        <v>75.492569048608672</v>
+      </c>
+      <c r="Y17" s="26">
+        <v>168.19385509796476</v>
+      </c>
+      <c r="Z17" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>4.6984752559844027</v>
+      </c>
+      <c r="AA17" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="AB17" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="32">
+        <v>0.99999999999999811</v>
+      </c>
+      <c r="AG17" s="32">
+        <v>1.4772990198969538E-27</v>
+      </c>
+      <c r="AH17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="32">
+        <v>1.9075255820323933E-15</v>
+      </c>
+      <c r="AJ17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999999999999811</v>
+      </c>
+      <c r="AL17" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="AM17" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -25832,12 +27430,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.2165720346286006</v>
       </c>
-      <c r="P18" s="21"/>
+      <c r="P18" s="36"/>
       <c r="Q18" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S18" s="26">
+        <v>1556.2239593861277</v>
+      </c>
+      <c r="T18" s="26">
+        <v>139.44559210903751</v>
+      </c>
+      <c r="U18" s="26">
+        <v>52.905689519895297</v>
+      </c>
+      <c r="V18" s="26">
+        <v>52.110869234111405</v>
+      </c>
+      <c r="W18" s="26">
+        <v>431.56553711215969</v>
+      </c>
+      <c r="X18" s="26">
+        <v>35.903810909373711</v>
+      </c>
+      <c r="Y18" s="26">
+        <v>107.73225074672494</v>
+      </c>
+      <c r="Z18" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>35.903810909373711</v>
+      </c>
+      <c r="AA18" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB18" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD18" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="32">
+        <v>7.2918716105640865E-24</v>
+      </c>
+      <c r="AF18" s="32">
+        <v>4.5158560826527075E-5</v>
+      </c>
+      <c r="AG18" s="32">
+        <v>2.6877762758171901E-4</v>
+      </c>
+      <c r="AH18" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="32">
+        <v>0.99968606381159164</v>
+      </c>
+      <c r="AJ18" s="32">
+        <v>1.4036007777678009E-16</v>
+      </c>
+      <c r="AK18" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99968606381159164</v>
+      </c>
+      <c r="AL18" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM18" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -25884,12 +27554,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.1571064200729717</v>
       </c>
-      <c r="P19" s="21"/>
+      <c r="P19" s="36"/>
       <c r="Q19" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S19" s="26">
+        <v>1481.9549306400077</v>
+      </c>
+      <c r="T19" s="26">
+        <v>146.40880682650226</v>
+      </c>
+      <c r="U19" s="26">
+        <v>121.35134966291876</v>
+      </c>
+      <c r="V19" s="26">
+        <v>18.133389859252564</v>
+      </c>
+      <c r="W19" s="26">
+        <v>325.89424284594799</v>
+      </c>
+      <c r="X19" s="26">
+        <v>17.117820906929044</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>62.126944097888845</v>
+      </c>
+      <c r="Z19" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>17.117820906929044</v>
+      </c>
+      <c r="AA19" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB19" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD19" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="32">
+        <v>1.2176155579453363E-29</v>
+      </c>
+      <c r="AF19" s="32">
+        <v>3.3625432335799495E-24</v>
+      </c>
+      <c r="AG19" s="32">
+        <v>0.3485162691588482</v>
+      </c>
+      <c r="AH19" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="32">
+        <v>0.65148373078019473</v>
+      </c>
+      <c r="AJ19" s="32">
+        <v>6.0957079445744409E-11</v>
+      </c>
+      <c r="AK19" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.65148373078019473</v>
+      </c>
+      <c r="AL19" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM19" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
@@ -25936,14 +27678,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.800402445326565</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="36">
         <v>5</v>
       </c>
       <c r="Q20" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="S20" s="26">
+        <v>503.5911270771465</v>
+      </c>
+      <c r="T20" s="26">
+        <v>413.08212721230302</v>
+      </c>
+      <c r="U20" s="26">
+        <v>624.6585600775411</v>
+      </c>
+      <c r="V20" s="26">
+        <v>294.84162660238968</v>
+      </c>
+      <c r="W20" s="26">
+        <v>4.1988057112838533</v>
+      </c>
+      <c r="X20" s="26">
+        <v>360.12371033783614</v>
+      </c>
+      <c r="Y20" s="26">
+        <v>294.38699807377623</v>
+      </c>
+      <c r="Z20" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>4.1988057112838533</v>
+      </c>
+      <c r="AA20" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AB20" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC20" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD20" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="32">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL20" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AM20" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -25990,12 +27804,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>9.6872021226572436</v>
       </c>
-      <c r="P21" s="21"/>
+      <c r="P21" s="36"/>
       <c r="Q21" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S21" s="26">
+        <v>1704.0562795886381</v>
+      </c>
+      <c r="T21" s="26">
+        <v>143.02591526442851</v>
+      </c>
+      <c r="U21" s="26">
+        <v>40.097716632678832</v>
+      </c>
+      <c r="V21" s="26">
+        <v>83.745332696274275</v>
+      </c>
+      <c r="W21" s="26">
+        <v>486.34993349227994</v>
+      </c>
+      <c r="X21" s="26">
+        <v>37.196982340542299</v>
+      </c>
+      <c r="Y21" s="26">
+        <v>120.49530455024426</v>
+      </c>
+      <c r="Z21" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>37.196982340542299</v>
+      </c>
+      <c r="AA21" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB21" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="32">
+        <v>2.2093602331272852E-24</v>
+      </c>
+      <c r="AF21" s="32">
+        <v>4.952686993897279E-2</v>
+      </c>
+      <c r="AG21" s="32">
+        <v>6.5908506532653106E-11</v>
+      </c>
+      <c r="AH21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="32">
+        <v>0.95047312999511868</v>
+      </c>
+      <c r="AJ21" s="32">
+        <v>4.3118783030063173E-19</v>
+      </c>
+      <c r="AK21" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.95047312999511868</v>
+      </c>
+      <c r="AL21" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM21" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -26042,14 +27928,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.0636332457298527</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="36">
         <v>7</v>
       </c>
       <c r="Q22" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="S22" s="26">
+        <v>1186.8012782715484</v>
+      </c>
+      <c r="T22" s="26">
+        <v>235.38694581421862</v>
+      </c>
+      <c r="U22" s="26">
+        <v>202.9053048218656</v>
+      </c>
+      <c r="V22" s="26">
+        <v>28.536123906322892</v>
+      </c>
+      <c r="W22" s="26">
+        <v>225.0793693490773</v>
+      </c>
+      <c r="X22" s="26">
+        <v>47.249861526490292</v>
+      </c>
+      <c r="Y22" s="26">
+        <v>11.279369176693713</v>
+      </c>
+      <c r="Z22" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>28.536123906322892</v>
+      </c>
+      <c r="AA22" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB22" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="32">
+        <v>2.8624569283912919E-4</v>
+      </c>
+      <c r="AH22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="32">
+        <v>2.7813458227591836E-8</v>
+      </c>
+      <c r="AJ22" s="32">
+        <v>0.99971372649370271</v>
+      </c>
+      <c r="AK22" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99971372649370271</v>
+      </c>
+      <c r="AL22" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM22" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -26096,14 +28054,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.8042268031625897</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="36">
         <v>4</v>
       </c>
       <c r="Q23" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S23" s="26">
+        <v>1456.5999259809823</v>
+      </c>
+      <c r="T23" s="26">
+        <v>150.51663439669034</v>
+      </c>
+      <c r="U23" s="26">
+        <v>163.81933280607149</v>
+      </c>
+      <c r="V23" s="26">
+        <v>6.6493347862326058</v>
+      </c>
+      <c r="W23" s="26">
+        <v>304.24588832425798</v>
+      </c>
+      <c r="X23" s="26">
+        <v>19.415291753202879</v>
+      </c>
+      <c r="Y23" s="26">
+        <v>43.209276284663417</v>
+      </c>
+      <c r="Z23" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>6.6493347862326058</v>
+      </c>
+      <c r="AA23" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB23" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="32">
+        <v>1.4345902462783805E-32</v>
+      </c>
+      <c r="AF23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="32">
+        <v>0.99810225930397201</v>
+      </c>
+      <c r="AH23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="32">
+        <v>1.8977335153635873E-3</v>
+      </c>
+      <c r="AJ23" s="32">
+        <v>7.1806644086163769E-9</v>
+      </c>
+      <c r="AK23" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99810225930397201</v>
+      </c>
+      <c r="AL23" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM23" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
@@ -26150,14 +28180,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.5048975545449186</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="36">
         <v>4</v>
       </c>
       <c r="Q24" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S24" s="26">
+        <v>1438.5208872702501</v>
+      </c>
+      <c r="T24" s="26">
+        <v>181.93711090353239</v>
+      </c>
+      <c r="U24" s="26">
+        <v>155.28810330503947</v>
+      </c>
+      <c r="V24" s="26">
+        <v>3.4132564456681975</v>
+      </c>
+      <c r="W24" s="26">
+        <v>301.63890369537859</v>
+      </c>
+      <c r="X24" s="26">
+        <v>17.624875918136539</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>21.704067997648185</v>
+      </c>
+      <c r="Z24" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>3.4132564456681975</v>
+      </c>
+      <c r="AA24" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB24" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC24" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>0.99901141935521776</v>
+      </c>
+      <c r="AH24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>9.2195349938071537E-4</v>
+      </c>
+      <c r="AJ24" s="32">
+        <v>6.6627145401490203E-5</v>
+      </c>
+      <c r="AK24" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99901141935521776</v>
+      </c>
+      <c r="AL24" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM24" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
@@ -26204,14 +28306,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.9034443673773915</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="36">
         <v>6</v>
       </c>
       <c r="Q25" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S25" s="26">
+        <v>1635.7602783820059</v>
+      </c>
+      <c r="T25" s="26">
+        <v>140.01894750478925</v>
+      </c>
+      <c r="U25" s="26">
+        <v>67.815278445080949</v>
+      </c>
+      <c r="V25" s="26">
+        <v>34.529977882064173</v>
+      </c>
+      <c r="W25" s="26">
+        <v>416.77289834306953</v>
+      </c>
+      <c r="X25" s="26">
+        <v>12.482327567265671</v>
+      </c>
+      <c r="Y25" s="26">
+        <v>64.789852080659841</v>
+      </c>
+      <c r="Z25" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>12.482327567265671</v>
+      </c>
+      <c r="AA25" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB25" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC25" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="32">
+        <v>4.4932031100911881E-29</v>
+      </c>
+      <c r="AF25" s="32">
+        <v>2.1447840619907452E-13</v>
+      </c>
+      <c r="AG25" s="32">
+        <v>1.4496219170756046E-5</v>
+      </c>
+      <c r="AH25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="32">
+        <v>0.99998550377818107</v>
+      </c>
+      <c r="AJ25" s="32">
+        <v>2.4338094336263893E-12</v>
+      </c>
+      <c r="AK25" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99998550377818107</v>
+      </c>
+      <c r="AL25" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM25" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -26258,14 +28432,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>0.78785227245208</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="36">
         <v>6</v>
       </c>
       <c r="Q26" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S26" s="26">
+        <v>1577.7403728211279</v>
+      </c>
+      <c r="T26" s="26">
+        <v>140.2801364320168</v>
+      </c>
+      <c r="U26" s="26">
+        <v>91.786792991565434</v>
+      </c>
+      <c r="V26" s="26">
+        <v>15.197495462962856</v>
+      </c>
+      <c r="W26" s="26">
+        <v>395.72300547643522</v>
+      </c>
+      <c r="X26" s="26">
+        <v>7.8012195746879174</v>
+      </c>
+      <c r="Y26" s="26">
+        <v>45.393510800474843</v>
+      </c>
+      <c r="Z26" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>7.8012195746879174</v>
+      </c>
+      <c r="AA26" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB26" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC26" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="32">
+        <v>3.7144789650133734E-30</v>
+      </c>
+      <c r="AF26" s="32">
+        <v>1.2591968712255178E-19</v>
+      </c>
+      <c r="AG26" s="32">
+        <v>2.1543103701058681E-2</v>
+      </c>
+      <c r="AH26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="32">
+        <v>0.9784568925646614</v>
+      </c>
+      <c r="AJ26" s="32">
+        <v>3.7342799346771389E-9</v>
+      </c>
+      <c r="AK26" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.9784568925646614</v>
+      </c>
+      <c r="AL26" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM26" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
@@ -26312,14 +28558,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>8.2523299787466176</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="36">
         <v>7</v>
       </c>
       <c r="Q27" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="S27" s="26">
+        <v>1403.6472294252155</v>
+      </c>
+      <c r="T27" s="26">
+        <v>261.24665045764243</v>
+      </c>
+      <c r="U27" s="26">
+        <v>207.12679068832466</v>
+      </c>
+      <c r="V27" s="26">
+        <v>40.685823992875349</v>
+      </c>
+      <c r="W27" s="26">
+        <v>323.55312194605449</v>
+      </c>
+      <c r="X27" s="26">
+        <v>51.608058504550208</v>
+      </c>
+      <c r="Y27" s="26">
+        <v>8.2265879441838905</v>
+      </c>
+      <c r="Z27" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>40.685823992875349</v>
+      </c>
+      <c r="AA27" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB27" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="32">
+        <v>1.4311540003203062E-7</v>
+      </c>
+      <c r="AH27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="32">
+        <v>6.8407828090933905E-10</v>
+      </c>
+      <c r="AJ27" s="32">
+        <v>0.99999985620052168</v>
+      </c>
+      <c r="AK27" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999985620052168</v>
+      </c>
+      <c r="AL27" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM27" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -26366,12 +28684,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.406241559376638</v>
       </c>
-      <c r="P28" s="21"/>
+      <c r="P28" s="36"/>
       <c r="Q28" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S28" s="26">
+        <v>1559.7128611981293</v>
+      </c>
+      <c r="T28" s="26">
+        <v>129.50912675918082</v>
+      </c>
+      <c r="U28" s="26">
+        <v>168.29382000731343</v>
+      </c>
+      <c r="V28" s="26">
+        <v>31.982067652666842</v>
+      </c>
+      <c r="W28" s="26">
+        <v>343.00604727487024</v>
+      </c>
+      <c r="X28" s="26">
+        <v>20.814876339346227</v>
+      </c>
+      <c r="Y28" s="26">
+        <v>35.742723008335858</v>
+      </c>
+      <c r="Z28" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>20.814876339346227</v>
+      </c>
+      <c r="AA28" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB28" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="32">
+        <v>5.5276981825944924E-25</v>
+      </c>
+      <c r="AF28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="32">
+        <v>3.3291711048471879E-3</v>
+      </c>
+      <c r="AH28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="32">
+        <v>0.99635343380867203</v>
+      </c>
+      <c r="AJ28" s="32">
+        <v>3.1739508648084488E-4</v>
+      </c>
+      <c r="AK28" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99635343380867203</v>
+      </c>
+      <c r="AL28" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM28" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -26418,12 +28808,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.7372535080252494</v>
       </c>
-      <c r="P29" s="21"/>
+      <c r="P29" s="36"/>
       <c r="Q29" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S29" s="26">
+        <v>1532.8527134586168</v>
+      </c>
+      <c r="T29" s="26">
+        <v>325.63281618899452</v>
+      </c>
+      <c r="U29" s="26">
+        <v>259.82249267388528</v>
+      </c>
+      <c r="V29" s="26">
+        <v>84.391466097064566</v>
+      </c>
+      <c r="W29" s="26">
+        <v>359.54327118640759</v>
+      </c>
+      <c r="X29" s="26">
+        <v>105.43829671848019</v>
+      </c>
+      <c r="Y29" s="26">
+        <v>85.95412092771987</v>
+      </c>
+      <c r="Z29" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>84.391466097064566</v>
+      </c>
+      <c r="AA29" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB29" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="32">
+        <v>0.7775118920227666</v>
+      </c>
+      <c r="AH29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="32">
+        <v>2.3528723304695566E-5</v>
+      </c>
+      <c r="AJ29" s="32">
+        <v>0.22246457925392865</v>
+      </c>
+      <c r="AK29" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.7775118920227666</v>
+      </c>
+      <c r="AL29" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM29" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -26470,12 +28932,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.105143675171409</v>
       </c>
-      <c r="P30" s="21"/>
+      <c r="P30" s="36"/>
       <c r="Q30" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S30" s="26">
+        <v>1484.9596974368562</v>
+      </c>
+      <c r="T30" s="26">
+        <v>205.79374882225801</v>
+      </c>
+      <c r="U30" s="26">
+        <v>107.76794728641026</v>
+      </c>
+      <c r="V30" s="26">
+        <v>29.165504653539944</v>
+      </c>
+      <c r="W30" s="26">
+        <v>372.85609570111603</v>
+      </c>
+      <c r="X30" s="26">
+        <v>24.605359692610058</v>
+      </c>
+      <c r="Y30" s="26">
+        <v>23.507907897366628</v>
+      </c>
+      <c r="Z30" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>24.605359692610058</v>
+      </c>
+      <c r="AA30" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB30" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="32">
+        <v>9.4614056527738073E-20</v>
+      </c>
+      <c r="AG30" s="32">
+        <v>4.4291379204758695E-2</v>
+      </c>
+      <c r="AH30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="32">
+        <v>0.4871858019787294</v>
+      </c>
+      <c r="AJ30" s="32">
+        <v>0.46852281881651187</v>
+      </c>
+      <c r="AK30" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.4871858019787294</v>
+      </c>
+      <c r="AL30" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM30" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -26522,14 +29056,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>19.642262967293028</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="36">
         <v>5</v>
       </c>
       <c r="Q31" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="S31" s="26">
+        <v>492.40566306868192</v>
+      </c>
+      <c r="T31" s="26">
+        <v>404.02652193770376</v>
+      </c>
+      <c r="U31" s="26">
+        <v>669.73135715082287</v>
+      </c>
+      <c r="V31" s="26">
+        <v>311.23017709349261</v>
+      </c>
+      <c r="W31" s="26">
+        <v>4.1988057112838497</v>
+      </c>
+      <c r="X31" s="26">
+        <v>384.2273645238439</v>
+      </c>
+      <c r="Y31" s="26">
+        <v>311.70262712626186</v>
+      </c>
+      <c r="Z31" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>4.1988057112838497</v>
+      </c>
+      <c r="AA31" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AB31" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC31" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="32">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL31" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AM31" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>30</v>
       </c>
@@ -26576,12 +29182,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.429901899851826</v>
       </c>
-      <c r="P32" s="21"/>
+      <c r="P32" s="36"/>
       <c r="Q32" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S32" s="26">
+        <v>1557.8990206146757</v>
+      </c>
+      <c r="T32" s="26">
+        <v>251.77177809284944</v>
+      </c>
+      <c r="U32" s="26">
+        <v>186.97016515986317</v>
+      </c>
+      <c r="V32" s="26">
+        <v>91.801781022294307</v>
+      </c>
+      <c r="W32" s="26">
+        <v>399.95180907853688</v>
+      </c>
+      <c r="X32" s="26">
+        <v>97.812265478229918</v>
+      </c>
+      <c r="Y32" s="26">
+        <v>123.84139410506008</v>
+      </c>
+      <c r="Z32" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>91.801781022294307</v>
+      </c>
+      <c r="AA32" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB32" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="32">
+        <v>5.114935681208449E-22</v>
+      </c>
+      <c r="AG32" s="32">
+        <v>0.94722294493665082</v>
+      </c>
+      <c r="AH32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="32">
+        <v>5.2776989747489851E-2</v>
+      </c>
+      <c r="AJ32" s="32">
+        <v>6.5315859302549189E-8</v>
+      </c>
+      <c r="AK32" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.94722294493665082</v>
+      </c>
+      <c r="AL32" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM32" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
@@ -26628,12 +29306,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.5879216036588755</v>
       </c>
-      <c r="P33" s="21"/>
+      <c r="P33" s="36"/>
       <c r="Q33" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S33" s="26">
+        <v>1139.8613635891295</v>
+      </c>
+      <c r="T33" s="26">
+        <v>197.22352041596352</v>
+      </c>
+      <c r="U33" s="26">
+        <v>211.0137618883233</v>
+      </c>
+      <c r="V33" s="26">
+        <v>33.673942564089977</v>
+      </c>
+      <c r="W33" s="26">
+        <v>188.89401577423337</v>
+      </c>
+      <c r="X33" s="26">
+        <v>65.183104464126018</v>
+      </c>
+      <c r="Y33" s="26">
+        <v>67.750931918977713</v>
+      </c>
+      <c r="Z33" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>33.673942564089977</v>
+      </c>
+      <c r="AA33" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB33" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="32">
+        <v>0.99999981328523146</v>
+      </c>
+      <c r="AH33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="32">
+        <v>1.6181727003714745E-7</v>
+      </c>
+      <c r="AJ33" s="32">
+        <v>2.48974986734205E-8</v>
+      </c>
+      <c r="AK33" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999981328523146</v>
+      </c>
+      <c r="AL33" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM33" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -26680,14 +29430,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>54.225403051233627</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="36">
         <v>1</v>
       </c>
       <c r="Q34" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="S34" s="26">
+        <v>8.6457621247368959</v>
+      </c>
+      <c r="T34" s="26">
+        <v>1568.0310517100622</v>
+      </c>
+      <c r="U34" s="26">
+        <v>1843.3502489308735</v>
+      </c>
+      <c r="V34" s="26">
+        <v>1447.9267959562765</v>
+      </c>
+      <c r="W34" s="26">
+        <v>516.85524981133233</v>
+      </c>
+      <c r="X34" s="26">
+        <v>1569.4340040486316</v>
+      </c>
+      <c r="Y34" s="26">
+        <v>1393.5535704596264</v>
+      </c>
+      <c r="Z34" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>8.6457621247368959</v>
+      </c>
+      <c r="AA34" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB34" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC34" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD34" s="32">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL34" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AM34" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
@@ -26734,12 +29556,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.493128371764985</v>
       </c>
-      <c r="P35" s="21"/>
+      <c r="P35" s="36"/>
       <c r="Q35" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S35" s="26">
+        <v>1526.3308983927452</v>
+      </c>
+      <c r="T35" s="26">
+        <v>111.37612884326867</v>
+      </c>
+      <c r="U35" s="26">
+        <v>133.11199742922554</v>
+      </c>
+      <c r="V35" s="26">
+        <v>32.978685339369846</v>
+      </c>
+      <c r="W35" s="26">
+        <v>356.79634880510616</v>
+      </c>
+      <c r="X35" s="26">
+        <v>25.71368466919963</v>
+      </c>
+      <c r="Y35" s="26">
+        <v>78.300260029094304</v>
+      </c>
+      <c r="Z35" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>25.71368466919963</v>
+      </c>
+      <c r="AA35" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB35" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD35" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="32">
+        <v>5.4366519547616449E-20</v>
+      </c>
+      <c r="AF35" s="32">
+        <v>1.0362096631363684E-24</v>
+      </c>
+      <c r="AG35" s="32">
+        <v>2.2971009263750276E-2</v>
+      </c>
+      <c r="AH35" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="32">
+        <v>0.97702899073418148</v>
+      </c>
+      <c r="AJ35" s="32">
+        <v>2.0682602954215736E-12</v>
+      </c>
+      <c r="AK35" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.97702899073418148</v>
+      </c>
+      <c r="AL35" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM35" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -26786,12 +29680,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.5248194181120622</v>
       </c>
-      <c r="P36" s="21"/>
+      <c r="P36" s="36"/>
       <c r="Q36" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S36" s="26">
+        <v>1383.3689016896051</v>
+      </c>
+      <c r="T36" s="26">
+        <v>274.43304077272643</v>
+      </c>
+      <c r="U36" s="26">
+        <v>264.83884787912046</v>
+      </c>
+      <c r="V36" s="26">
+        <v>36.527573954061772</v>
+      </c>
+      <c r="W36" s="26">
+        <v>273.66530564687241</v>
+      </c>
+      <c r="X36" s="26">
+        <v>63.359662521136265</v>
+      </c>
+      <c r="Y36" s="26">
+        <v>16.06016302448527</v>
+      </c>
+      <c r="Z36" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>36.527573954061772</v>
+      </c>
+      <c r="AA36" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB36" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD36" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="32">
+        <v>5.7498060834164716E-5</v>
+      </c>
+      <c r="AH36" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="32">
+        <v>9.6447665296196643E-11</v>
+      </c>
+      <c r="AJ36" s="32">
+        <v>0.99994250184271816</v>
+      </c>
+      <c r="AK36" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99994250184271816</v>
+      </c>
+      <c r="AL36" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM36" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
@@ -26838,12 +29804,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.3865040786689367</v>
       </c>
-      <c r="P37" s="21"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S37" s="26">
+        <v>1564.9457699645652</v>
+      </c>
+      <c r="T37" s="26">
+        <v>87.556383694819885</v>
+      </c>
+      <c r="U37" s="26">
+        <v>83.280765859854128</v>
+      </c>
+      <c r="V37" s="26">
+        <v>26.904066267506504</v>
+      </c>
+      <c r="W37" s="26">
+        <v>384.40179425456864</v>
+      </c>
+      <c r="X37" s="26">
+        <v>5.5917022956356019</v>
+      </c>
+      <c r="Y37" s="26">
+        <v>58.084587952725073</v>
+      </c>
+      <c r="Z37" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>5.5917022956356019</v>
+      </c>
+      <c r="AA37" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB37" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD37" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="32">
+        <v>3.5348742757500811E-19</v>
+      </c>
+      <c r="AF37" s="32">
+        <v>2.9978685644627434E-18</v>
+      </c>
+      <c r="AG37" s="32">
+        <v>2.0937139656709726E-5</v>
+      </c>
+      <c r="AH37" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="32">
+        <v>0.99997906285812499</v>
+      </c>
+      <c r="AJ37" s="32">
+        <v>2.2183655480745079E-12</v>
+      </c>
+      <c r="AK37" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99997906285812499</v>
+      </c>
+      <c r="AL37" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM37" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
@@ -26890,12 +29928,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.6535195137126326</v>
       </c>
-      <c r="P38" s="21"/>
+      <c r="P38" s="36"/>
       <c r="Q38" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S38" s="26">
+        <v>1451.4395640692292</v>
+      </c>
+      <c r="T38" s="26">
+        <v>90.644027734827645</v>
+      </c>
+      <c r="U38" s="26">
+        <v>136.76886918759763</v>
+      </c>
+      <c r="V38" s="26">
+        <v>43.171798278354103</v>
+      </c>
+      <c r="W38" s="26">
+        <v>324.71334452779888</v>
+      </c>
+      <c r="X38" s="26">
+        <v>24.083759561703783</v>
+      </c>
+      <c r="Y38" s="26">
+        <v>55.669156159685194</v>
+      </c>
+      <c r="Z38" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>24.083759561703783</v>
+      </c>
+      <c r="AA38" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB38" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD38" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="32">
+        <v>7.8231419677218531E-16</v>
+      </c>
+      <c r="AF38" s="32">
+        <v>7.5422192094227602E-26</v>
+      </c>
+      <c r="AG38" s="32">
+        <v>6.3665602172346676E-5</v>
+      </c>
+      <c r="AH38" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="32">
+        <v>0.99993625748157988</v>
+      </c>
+      <c r="AJ38" s="32">
+        <v>7.6916246994223733E-8</v>
+      </c>
+      <c r="AK38" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99993625748157988</v>
+      </c>
+      <c r="AL38" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM38" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>37</v>
       </c>
@@ -26942,12 +30052,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.3276187939336062</v>
       </c>
-      <c r="P39" s="21"/>
+      <c r="P39" s="36"/>
       <c r="Q39" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S39" s="26">
+        <v>1439.5609648661728</v>
+      </c>
+      <c r="T39" s="26">
+        <v>184.12800891021496</v>
+      </c>
+      <c r="U39" s="26">
+        <v>91.502856862443551</v>
+      </c>
+      <c r="V39" s="26">
+        <v>27.791532936213795</v>
+      </c>
+      <c r="W39" s="26">
+        <v>372.79587017592769</v>
+      </c>
+      <c r="X39" s="26">
+        <v>22.450468828577595</v>
+      </c>
+      <c r="Y39" s="26">
+        <v>35.529319208843411</v>
+      </c>
+      <c r="Z39" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>22.450468828577595</v>
+      </c>
+      <c r="AA39" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB39" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD39" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="32">
+        <v>2.1183290363059062E-16</v>
+      </c>
+      <c r="AG39" s="32">
+        <v>5.7915074386343406E-2</v>
+      </c>
+      <c r="AH39" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="32">
+        <v>0.94132908069868382</v>
+      </c>
+      <c r="AJ39" s="32">
+        <v>7.5584491497261892E-4</v>
+      </c>
+      <c r="AK39" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.94132908069868382</v>
+      </c>
+      <c r="AL39" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM39" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
@@ -26994,14 +30176,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.5505826921321959</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P40" s="36">
         <v>6</v>
       </c>
       <c r="Q40" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S40" s="26">
+        <v>1531.8820054538696</v>
+      </c>
+      <c r="T40" s="26">
+        <v>102.04962321441927</v>
+      </c>
+      <c r="U40" s="26">
+        <v>108.51878396951561</v>
+      </c>
+      <c r="V40" s="26">
+        <v>21.627191893664094</v>
+      </c>
+      <c r="W40" s="26">
+        <v>360.25539659000367</v>
+      </c>
+      <c r="X40" s="26">
+        <v>6.247894056071396</v>
+      </c>
+      <c r="Y40" s="26">
+        <v>39.747883481616121</v>
+      </c>
+      <c r="Z40" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>6.247894056071396</v>
+      </c>
+      <c r="AA40" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB40" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD40" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="32">
+        <v>3.4956642747921775E-22</v>
+      </c>
+      <c r="AF40" s="32">
+        <v>1.3764781025222978E-23</v>
+      </c>
+      <c r="AG40" s="32">
+        <v>4.0653578436710737E-4</v>
+      </c>
+      <c r="AH40" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="32">
+        <v>0.99959343469534334</v>
+      </c>
+      <c r="AJ40" s="32">
+        <v>2.9520289638817322E-8</v>
+      </c>
+      <c r="AK40" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99959343469534334</v>
+      </c>
+      <c r="AL40" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM40" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>39</v>
       </c>
@@ -27048,14 +30302,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.8420069727185551</v>
       </c>
-      <c r="P41" s="21">
+      <c r="P41" s="36">
         <v>7</v>
       </c>
       <c r="Q41" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="S41" s="26">
+        <v>1451.2802242702962</v>
+      </c>
+      <c r="T41" s="26">
+        <v>232.73586888783271</v>
+      </c>
+      <c r="U41" s="26">
+        <v>206.23697076673935</v>
+      </c>
+      <c r="V41" s="26">
+        <v>33.095940732962745</v>
+      </c>
+      <c r="W41" s="26">
+        <v>326.00067700561033</v>
+      </c>
+      <c r="X41" s="26">
+        <v>40.815223723233814</v>
+      </c>
+      <c r="Y41" s="26">
+        <v>5.756165517535349</v>
+      </c>
+      <c r="Z41" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>33.095940732962745</v>
+      </c>
+      <c r="AA41" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB41" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD41" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="32">
+        <v>1.8508124128920047E-6</v>
+      </c>
+      <c r="AH41" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="32">
+        <v>4.3882758773845501E-8</v>
+      </c>
+      <c r="AJ41" s="32">
+        <v>0.99999810530482836</v>
+      </c>
+      <c r="AK41" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999810530482836</v>
+      </c>
+      <c r="AL41" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM41" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>40</v>
       </c>
@@ -27102,14 +30428,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.4409058754714197</v>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="36">
         <v>4</v>
       </c>
       <c r="Q42" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S42" s="26">
+        <v>1366.9989214748937</v>
+      </c>
+      <c r="T42" s="26">
+        <v>179.07779817667412</v>
+      </c>
+      <c r="U42" s="26">
+        <v>132.23896843060172</v>
+      </c>
+      <c r="V42" s="26">
+        <v>9.0886866111612932</v>
+      </c>
+      <c r="W42" s="26">
+        <v>305.60499829232242</v>
+      </c>
+      <c r="X42" s="26">
+        <v>18.483851018688728</v>
+      </c>
+      <c r="Y42" s="26">
+        <v>21.884415600208648</v>
+      </c>
+      <c r="Z42" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>9.0886866111612932</v>
+      </c>
+      <c r="AA42" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB42" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC42" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD42" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="32">
+        <v>4.4804031242047445E-28</v>
+      </c>
+      <c r="AG42" s="32">
+        <v>0.98882856164895416</v>
+      </c>
+      <c r="AH42" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="32">
+        <v>1.0142371061684101E-2</v>
+      </c>
+      <c r="AJ42" s="32">
+        <v>1.0290672893617429E-3</v>
+      </c>
+      <c r="AK42" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.98882856164895416</v>
+      </c>
+      <c r="AL42" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM42" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>41</v>
       </c>
@@ -27156,14 +30554,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.3739998720413951</v>
       </c>
-      <c r="P43" s="21">
+      <c r="P43" s="36">
         <v>4</v>
       </c>
       <c r="Q43" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S43" s="26">
+        <v>1413.4181741127738</v>
+      </c>
+      <c r="T43" s="26">
+        <v>132.80240414551039</v>
+      </c>
+      <c r="U43" s="26">
+        <v>172.45554171587898</v>
+      </c>
+      <c r="V43" s="26">
+        <v>6.6815793492754842</v>
+      </c>
+      <c r="W43" s="26">
+        <v>272.2476191376652</v>
+      </c>
+      <c r="X43" s="26">
+        <v>17.283643994555433</v>
+      </c>
+      <c r="Y43" s="26">
+        <v>34.898914434736561</v>
+      </c>
+      <c r="Z43" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>6.6815793492754842</v>
+      </c>
+      <c r="AA43" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB43" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC43" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD43" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="32">
+        <v>1.0202842938947972E-28</v>
+      </c>
+      <c r="AF43" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="32">
+        <v>0.99442108364695903</v>
+      </c>
+      <c r="AH43" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="32">
+        <v>5.5784527632322424E-3</v>
+      </c>
+      <c r="AJ43" s="32">
+        <v>4.6358980873500233E-7</v>
+      </c>
+      <c r="AK43" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99442108364695903</v>
+      </c>
+      <c r="AL43" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM43" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
@@ -27210,14 +30680,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.0515070846700634</v>
       </c>
-      <c r="P44" s="21">
+      <c r="P44" s="36">
         <v>4</v>
       </c>
       <c r="Q44" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S44" s="26">
+        <v>1359.1808059283362</v>
+      </c>
+      <c r="T44" s="26">
+        <v>205.31263257390614</v>
+      </c>
+      <c r="U44" s="26">
+        <v>176.84245570621684</v>
+      </c>
+      <c r="V44" s="26">
+        <v>8.3017050339765284</v>
+      </c>
+      <c r="W44" s="26">
+        <v>277.70875629903423</v>
+      </c>
+      <c r="X44" s="26">
+        <v>24.786278675846852</v>
+      </c>
+      <c r="Y44" s="26">
+        <v>13.437479474900199</v>
+      </c>
+      <c r="Z44" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>8.3017050339765284</v>
+      </c>
+      <c r="AA44" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB44" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC44" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD44" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="32">
+        <v>0.95398721371917872</v>
+      </c>
+      <c r="AH44" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="32">
+        <v>2.8256306433351768E-4</v>
+      </c>
+      <c r="AJ44" s="32">
+        <v>4.5730223216487675E-2</v>
+      </c>
+      <c r="AK44" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.95398721371917872</v>
+      </c>
+      <c r="AL44" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM44" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>43</v>
       </c>
@@ -27264,12 +30806,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.5518737498873696</v>
       </c>
-      <c r="P45" s="21"/>
+      <c r="P45" s="36"/>
       <c r="Q45" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S45" s="26">
+        <v>1730.1751328180617</v>
+      </c>
+      <c r="T45" s="26">
+        <v>137.47239935024641</v>
+      </c>
+      <c r="U45" s="26">
+        <v>91.09547263797883</v>
+      </c>
+      <c r="V45" s="26">
+        <v>49.998904136794806</v>
+      </c>
+      <c r="W45" s="26">
+        <v>451.52609959376815</v>
+      </c>
+      <c r="X45" s="26">
+        <v>19.509972995375261</v>
+      </c>
+      <c r="Y45" s="26">
+        <v>59.33525345946105</v>
+      </c>
+      <c r="Z45" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>19.509972995375261</v>
+      </c>
+      <c r="AA45" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB45" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD45" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="32">
+        <v>5.3897916132366218E-27</v>
+      </c>
+      <c r="AF45" s="32">
+        <v>6.3415241935302558E-17</v>
+      </c>
+      <c r="AG45" s="32">
+        <v>2.1294140125686645E-7</v>
+      </c>
+      <c r="AH45" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="32">
+        <v>0.99999978580897975</v>
+      </c>
+      <c r="AJ45" s="32">
+        <v>1.2496190261883953E-9</v>
+      </c>
+      <c r="AK45" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999978580897975</v>
+      </c>
+      <c r="AL45" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM45" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>44</v>
       </c>
@@ -27316,12 +30930,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>19.923995768626028</v>
       </c>
-      <c r="P46" s="21"/>
+      <c r="P46" s="36"/>
       <c r="Q46" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S46" s="26">
+        <v>1247.728488282371</v>
+      </c>
+      <c r="T46" s="26">
+        <v>336.29415601520083</v>
+      </c>
+      <c r="U46" s="26">
+        <v>331.80212950595484</v>
+      </c>
+      <c r="V46" s="26">
+        <v>193.94611507736406</v>
+      </c>
+      <c r="W46" s="26">
+        <v>378.35232326151589</v>
+      </c>
+      <c r="X46" s="26">
+        <v>214.0106813785421</v>
+      </c>
+      <c r="Y46" s="26">
+        <v>247.6157590387424</v>
+      </c>
+      <c r="Z46" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>193.94611507736406</v>
+      </c>
+      <c r="AA46" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB46" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD46" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="32">
+        <v>3.0720917906251792E-32</v>
+      </c>
+      <c r="AF46" s="32">
+        <v>2.9031224255351989E-31</v>
+      </c>
+      <c r="AG46" s="32">
+        <v>0.99995055005133826</v>
+      </c>
+      <c r="AH46" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="32">
+        <v>4.9449947276020855E-5</v>
+      </c>
+      <c r="AJ46" s="32">
+        <v>1.3856177302458522E-12</v>
+      </c>
+      <c r="AK46" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99995055005133826</v>
+      </c>
+      <c r="AL46" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM46" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>45</v>
       </c>
@@ -27368,14 +31054,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.545536761032325</v>
       </c>
-      <c r="P47" s="21">
+      <c r="P47" s="36">
         <v>7</v>
       </c>
       <c r="Q47" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="S47" s="26">
+        <v>1497.3092874089998</v>
+      </c>
+      <c r="T47" s="26">
+        <v>246.09580492485486</v>
+      </c>
+      <c r="U47" s="26">
+        <v>222.01690613348981</v>
+      </c>
+      <c r="V47" s="26">
+        <v>41.075797564303741</v>
+      </c>
+      <c r="W47" s="26">
+        <v>343.54723024821146</v>
+      </c>
+      <c r="X47" s="26">
+        <v>52.499925341125852</v>
+      </c>
+      <c r="Y47" s="26">
+        <v>11.503974223763437</v>
+      </c>
+      <c r="Z47" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>41.075797564303741</v>
+      </c>
+      <c r="AA47" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB47" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD47" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="32">
+        <v>6.0628925300336166E-7</v>
+      </c>
+      <c r="AH47" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="32">
+        <v>2.254833951676096E-9</v>
+      </c>
+      <c r="AJ47" s="32">
+        <v>0.99999939145591299</v>
+      </c>
+      <c r="AK47" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999939145591299</v>
+      </c>
+      <c r="AL47" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM47" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
@@ -27422,12 +31180,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.6029940358170953</v>
       </c>
-      <c r="P48" s="21"/>
+      <c r="P48" s="36"/>
       <c r="Q48" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S48" s="26">
+        <v>1136.3671719615297</v>
+      </c>
+      <c r="T48" s="26">
+        <v>183.57616760112717</v>
+      </c>
+      <c r="U48" s="26">
+        <v>186.92136647103763</v>
+      </c>
+      <c r="V48" s="26">
+        <v>28.261915747259838</v>
+      </c>
+      <c r="W48" s="26">
+        <v>200.9517737868718</v>
+      </c>
+      <c r="X48" s="26">
+        <v>44.470985176746325</v>
+      </c>
+      <c r="Y48" s="26">
+        <v>35.068844196025374</v>
+      </c>
+      <c r="Z48" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>28.261915747259838</v>
+      </c>
+      <c r="AA48" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB48" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD48" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="32">
+        <v>0.97931098079134393</v>
+      </c>
+      <c r="AH48" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="32">
+        <v>3.3290356167504714E-4</v>
+      </c>
+      <c r="AJ48" s="32">
+        <v>2.0356115646980935E-2</v>
+      </c>
+      <c r="AK48" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.97931098079134393</v>
+      </c>
+      <c r="AL48" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM48" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>47</v>
       </c>
@@ -27474,12 +31304,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>19.935317220770148</v>
       </c>
-      <c r="P49" s="21"/>
+      <c r="P49" s="36"/>
       <c r="Q49" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S49" s="26">
+        <v>1966.8172871747631</v>
+      </c>
+      <c r="T49" s="26">
+        <v>212.55681977791662</v>
+      </c>
+      <c r="U49" s="26">
+        <v>30.782394897020122</v>
+      </c>
+      <c r="V49" s="26">
+        <v>150.39214559249706</v>
+      </c>
+      <c r="W49" s="26">
+        <v>656.10641367019275</v>
+      </c>
+      <c r="X49" s="26">
+        <v>90.315314886603005</v>
+      </c>
+      <c r="Y49" s="26">
+        <v>191.2256500924004</v>
+      </c>
+      <c r="Z49" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>30.782394897020122</v>
+      </c>
+      <c r="AA49" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="AB49" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD49" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="32">
+        <v>0.99999999999946809</v>
+      </c>
+      <c r="AG49" s="32">
+        <v>4.2572841403082146E-26</v>
+      </c>
+      <c r="AH49" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="32">
+        <v>5.3186718020111895E-13</v>
+      </c>
+      <c r="AJ49" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999999999946809</v>
+      </c>
+      <c r="AL49" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="AM49" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
@@ -27526,12 +31428,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>42.501664791088388</v>
       </c>
-      <c r="P50" s="21"/>
+      <c r="P50" s="36"/>
       <c r="Q50" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S50" s="26">
+        <v>2188.3757935752078</v>
+      </c>
+      <c r="T50" s="26">
+        <v>537.40703179819752</v>
+      </c>
+      <c r="U50" s="26">
+        <v>241.24879562749379</v>
+      </c>
+      <c r="V50" s="26">
+        <v>563.55076287554436</v>
+      </c>
+      <c r="W50" s="26">
+        <v>1124.0993833729201</v>
+      </c>
+      <c r="X50" s="26">
+        <v>484.3218011344062</v>
+      </c>
+      <c r="Y50" s="26">
+        <v>687.19318728045801</v>
+      </c>
+      <c r="Z50" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>241.24879562749379</v>
+      </c>
+      <c r="AA50" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="AB50" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD50" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="32">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL50" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="AM50" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>49</v>
       </c>
@@ -27578,12 +31552,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>10.127926058631388</v>
       </c>
-      <c r="P51" s="21"/>
+      <c r="P51" s="36"/>
       <c r="Q51" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S51" s="26">
+        <v>1676.992801557644</v>
+      </c>
+      <c r="T51" s="26">
+        <v>127.31942942832792</v>
+      </c>
+      <c r="U51" s="26">
+        <v>155.71885355055622</v>
+      </c>
+      <c r="V51" s="26">
+        <v>56.288266070872801</v>
+      </c>
+      <c r="W51" s="26">
+        <v>406.14270269742235</v>
+      </c>
+      <c r="X51" s="26">
+        <v>33.85808881488974</v>
+      </c>
+      <c r="Y51" s="26">
+        <v>78.614901842331989</v>
+      </c>
+      <c r="Z51" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>33.85808881488974</v>
+      </c>
+      <c r="AA51" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB51" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD51" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="32">
+        <v>1.1269639833118923E-21</v>
+      </c>
+      <c r="AF51" s="32">
+        <v>7.6745592596495278E-28</v>
+      </c>
+      <c r="AG51" s="32">
+        <v>1.1972674419398093E-5</v>
+      </c>
+      <c r="AH51" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="32">
+        <v>0.99998802721943447</v>
+      </c>
+      <c r="AJ51" s="32">
+        <v>1.0614604877818836E-10</v>
+      </c>
+      <c r="AK51" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99998802721943447</v>
+      </c>
+      <c r="AL51" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM51" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>50</v>
       </c>
@@ -27630,12 +31676,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>10.969901408299849</v>
       </c>
-      <c r="P52" s="21"/>
+      <c r="P52" s="36"/>
       <c r="Q52" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S52" s="26">
+        <v>1248.2686727664266</v>
+      </c>
+      <c r="T52" s="26">
+        <v>314.72853969921431</v>
+      </c>
+      <c r="U52" s="26">
+        <v>380.16570901803982</v>
+      </c>
+      <c r="V52" s="26">
+        <v>64.329474099566212</v>
+      </c>
+      <c r="W52" s="26">
+        <v>234.43484858931427</v>
+      </c>
+      <c r="X52" s="26">
+        <v>126.0499026379663</v>
+      </c>
+      <c r="Y52" s="26">
+        <v>62.976544868845508</v>
+      </c>
+      <c r="Z52" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>64.329474099566212</v>
+      </c>
+      <c r="AA52" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB52" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD52" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="32">
+        <v>0.44856732184748832</v>
+      </c>
+      <c r="AH52" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="32">
+        <v>1.9978339408384783E-14</v>
+      </c>
+      <c r="AJ52" s="32">
+        <v>0.55143267815249164</v>
+      </c>
+      <c r="AK52" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.55143267815249164</v>
+      </c>
+      <c r="AL52" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM52" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>51</v>
       </c>
@@ -27682,12 +31800,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>10.64785641320098</v>
       </c>
-      <c r="P53" s="21"/>
+      <c r="P53" s="36"/>
       <c r="Q53" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S53" s="26">
+        <v>1051.5703556822552</v>
+      </c>
+      <c r="T53" s="26">
+        <v>261.99919858520877</v>
+      </c>
+      <c r="U53" s="26">
+        <v>345.62830531557034</v>
+      </c>
+      <c r="V53" s="26">
+        <v>58.963437255638077</v>
+      </c>
+      <c r="W53" s="26">
+        <v>157.6444202763266</v>
+      </c>
+      <c r="X53" s="26">
+        <v>118.07543934817473</v>
+      </c>
+      <c r="Y53" s="26">
+        <v>78.289191972787179</v>
+      </c>
+      <c r="Z53" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>58.963437255638077</v>
+      </c>
+      <c r="AA53" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB53" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="32">
+        <v>0.99996025079566087</v>
+      </c>
+      <c r="AH53" s="32">
+        <v>9.3243710674415707E-23</v>
+      </c>
+      <c r="AI53" s="32">
+        <v>1.6410699675094487E-13</v>
+      </c>
+      <c r="AJ53" s="32">
+        <v>3.9749204175175758E-5</v>
+      </c>
+      <c r="AK53" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99996025079566087</v>
+      </c>
+      <c r="AL53" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM53" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>52</v>
       </c>
@@ -27734,12 +31924,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.0593089440009553</v>
       </c>
-      <c r="P54" s="21"/>
+      <c r="P54" s="36"/>
       <c r="Q54" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S54" s="26">
+        <v>1850.6833902583887</v>
+      </c>
+      <c r="T54" s="26">
+        <v>214.81314351715289</v>
+      </c>
+      <c r="U54" s="26">
+        <v>64.100786453470789</v>
+      </c>
+      <c r="V54" s="26">
+        <v>57.363121174133617</v>
+      </c>
+      <c r="W54" s="26">
+        <v>564.61444016035011</v>
+      </c>
+      <c r="X54" s="26">
+        <v>37.296184177449277</v>
+      </c>
+      <c r="Y54" s="26">
+        <v>98.277880761262921</v>
+      </c>
+      <c r="Z54" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>37.296184177449277</v>
+      </c>
+      <c r="AA54" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB54" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="32">
+        <v>3.3591156966468403E-7</v>
+      </c>
+      <c r="AG54" s="32">
+        <v>3.9025671048718159E-5</v>
+      </c>
+      <c r="AH54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="32">
+        <v>0.99996063841734983</v>
+      </c>
+      <c r="AJ54" s="32">
+        <v>3.1820224421993651E-14</v>
+      </c>
+      <c r="AK54" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99996063841734983</v>
+      </c>
+      <c r="AL54" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM54" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>53</v>
       </c>
@@ -27786,12 +32048,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.4280775580256098</v>
       </c>
-      <c r="P55" s="21"/>
+      <c r="P55" s="36"/>
       <c r="Q55" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S55" s="26">
+        <v>1514.3645091093936</v>
+      </c>
+      <c r="T55" s="26">
+        <v>161.38239064972828</v>
+      </c>
+      <c r="U55" s="26">
+        <v>117.3496197144368</v>
+      </c>
+      <c r="V55" s="26">
+        <v>8.6228080581453899</v>
+      </c>
+      <c r="W55" s="26">
+        <v>356.00426577069817</v>
+      </c>
+      <c r="X55" s="26">
+        <v>9.7156765580964688</v>
+      </c>
+      <c r="Y55" s="26">
+        <v>23.721788363498415</v>
+      </c>
+      <c r="Z55" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>8.6228080581453899</v>
+      </c>
+      <c r="AA55" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB55" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="32">
+        <v>3.7177265737333219E-25</v>
+      </c>
+      <c r="AG55" s="32">
+        <v>0.60543093199659259</v>
+      </c>
+      <c r="AH55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="32">
+        <v>0.39436988938823631</v>
+      </c>
+      <c r="AJ55" s="32">
+        <v>1.9917861517102029E-4</v>
+      </c>
+      <c r="AK55" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.60543093199659259</v>
+      </c>
+      <c r="AL55" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM55" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -27838,12 +32172,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.128275417286944</v>
       </c>
-      <c r="P56" s="21"/>
+      <c r="P56" s="36"/>
       <c r="Q56" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S56" s="26">
+        <v>1477.2350629042896</v>
+      </c>
+      <c r="T56" s="26">
+        <v>126.55797467125826</v>
+      </c>
+      <c r="U56" s="26">
+        <v>94.69960943280617</v>
+      </c>
+      <c r="V56" s="26">
+        <v>22.414831052182087</v>
+      </c>
+      <c r="W56" s="26">
+        <v>359.11637612862432</v>
+      </c>
+      <c r="X56" s="26">
+        <v>11.522015619681738</v>
+      </c>
+      <c r="Y56" s="26">
+        <v>39.398707657659791</v>
+      </c>
+      <c r="Z56" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>11.522015619681738</v>
+      </c>
+      <c r="AA56" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB56" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="32">
+        <v>2.3194489848676004E-26</v>
+      </c>
+      <c r="AF56" s="32">
+        <v>1.9201755597209651E-19</v>
+      </c>
+      <c r="AG56" s="32">
+        <v>3.8180456537707168E-3</v>
+      </c>
+      <c r="AH56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="32">
+        <v>0.99618146488399439</v>
+      </c>
+      <c r="AJ56" s="32">
+        <v>4.8946223494125736E-7</v>
+      </c>
+      <c r="AK56" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99618146488399439</v>
+      </c>
+      <c r="AL56" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM56" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>55</v>
       </c>
@@ -27890,12 +32296,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.4928973101332255</v>
       </c>
-      <c r="P57" s="21"/>
+      <c r="P57" s="36"/>
       <c r="Q57" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S57" s="26">
+        <v>1400.0358659747751</v>
+      </c>
+      <c r="T57" s="26">
+        <v>133.17741329932852</v>
+      </c>
+      <c r="U57" s="26">
+        <v>127.59256134332054</v>
+      </c>
+      <c r="V57" s="26">
+        <v>25.521758920560298</v>
+      </c>
+      <c r="W57" s="26">
+        <v>324.71215028034004</v>
+      </c>
+      <c r="X57" s="26">
+        <v>29.191950305068282</v>
+      </c>
+      <c r="Y57" s="26">
+        <v>57.661728157282354</v>
+      </c>
+      <c r="Z57" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>25.521758920560298</v>
+      </c>
+      <c r="AA57" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB57" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="32">
+        <v>8.8939778202862064E-25</v>
+      </c>
+      <c r="AF57" s="32">
+        <v>1.4515474442646882E-23</v>
+      </c>
+      <c r="AG57" s="32">
+        <v>0.84778231848282448</v>
+      </c>
+      <c r="AH57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="32">
+        <v>0.15221762591923199</v>
+      </c>
+      <c r="AJ57" s="32">
+        <v>5.5597943507317391E-8</v>
+      </c>
+      <c r="AK57" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.84778231848282448</v>
+      </c>
+      <c r="AL57" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM57" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>56</v>
       </c>
@@ -27942,12 +32420,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>7.9213657540405125</v>
       </c>
-      <c r="P58" s="21"/>
+      <c r="P58" s="36"/>
       <c r="Q58" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S58" s="26">
+        <v>1776.3661761918102</v>
+      </c>
+      <c r="T58" s="26">
+        <v>133.02878151284688</v>
+      </c>
+      <c r="U58" s="26">
+        <v>49.246317629588034</v>
+      </c>
+      <c r="V58" s="26">
+        <v>101.35811713626126</v>
+      </c>
+      <c r="W58" s="26">
+        <v>535.97107655411401</v>
+      </c>
+      <c r="X58" s="26">
+        <v>48.967250320977847</v>
+      </c>
+      <c r="Y58" s="26">
+        <v>136.63416206099086</v>
+      </c>
+      <c r="Z58" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>48.967250320977847</v>
+      </c>
+      <c r="AA58" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB58" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="32">
+        <v>1.0382818270209581E-19</v>
+      </c>
+      <c r="AF58" s="32">
+        <v>0.16197430495613885</v>
+      </c>
+      <c r="AG58" s="32">
+        <v>3.130203930675478E-12</v>
+      </c>
+      <c r="AH58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="32">
+        <v>0.83802569504073099</v>
+      </c>
+      <c r="AJ58" s="32">
+        <v>4.2791432244090452E-20</v>
+      </c>
+      <c r="AK58" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.83802569504073099</v>
+      </c>
+      <c r="AL58" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM58" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>57</v>
       </c>
@@ -27994,12 +32544,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.1381792422386958</v>
       </c>
-      <c r="P59" s="21"/>
+      <c r="P59" s="36"/>
       <c r="Q59" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S59" s="26">
+        <v>1547.6774911768598</v>
+      </c>
+      <c r="T59" s="26">
+        <v>98.515313487995087</v>
+      </c>
+      <c r="U59" s="26">
+        <v>157.18575649756909</v>
+      </c>
+      <c r="V59" s="26">
+        <v>32.943554454936653</v>
+      </c>
+      <c r="W59" s="26">
+        <v>339.92637463310484</v>
+      </c>
+      <c r="X59" s="26">
+        <v>26.618124852804691</v>
+      </c>
+      <c r="Y59" s="26">
+        <v>60.015647260022995</v>
+      </c>
+      <c r="Z59" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>26.618124852804691</v>
+      </c>
+      <c r="AA59" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB59" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="32">
+        <v>5.2297072383940162E-17</v>
+      </c>
+      <c r="AF59" s="32">
+        <v>9.5137679113984243E-30</v>
+      </c>
+      <c r="AG59" s="32">
+        <v>3.6246320578995232E-2</v>
+      </c>
+      <c r="AH59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="32">
+        <v>0.96375364946294484</v>
+      </c>
+      <c r="AJ59" s="32">
+        <v>2.99580599253117E-8</v>
+      </c>
+      <c r="AK59" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.96375364946294484</v>
+      </c>
+      <c r="AL59" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM59" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>58</v>
       </c>
@@ -28046,12 +32668,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>15.940368580875958</v>
       </c>
-      <c r="P60" s="21"/>
+      <c r="P60" s="36"/>
       <c r="Q60" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S60" s="26">
+        <v>737.39604424806259</v>
+      </c>
+      <c r="T60" s="26">
+        <v>466.38382586174254</v>
+      </c>
+      <c r="U60" s="26">
+        <v>496.00268673063096</v>
+      </c>
+      <c r="V60" s="26">
+        <v>337.91416906623749</v>
+      </c>
+      <c r="W60" s="26">
+        <v>254.4770512539979</v>
+      </c>
+      <c r="X60" s="26">
+        <v>363.06253240708759</v>
+      </c>
+      <c r="Y60" s="26">
+        <v>338.11545682733146</v>
+      </c>
+      <c r="Z60" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>254.4770512539979</v>
+      </c>
+      <c r="AA60" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AB60" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="32">
+        <v>3.0473340575366782E-18</v>
+      </c>
+      <c r="AH60" s="32">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="32">
+        <v>1.1862463085766231E-23</v>
+      </c>
+      <c r="AJ60" s="32">
+        <v>1.7222294082287547E-18</v>
+      </c>
+      <c r="AK60" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL60" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AM60" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>59</v>
       </c>
@@ -28098,12 +32792,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.0179610606263636</v>
       </c>
-      <c r="P61" s="21"/>
+      <c r="P61" s="36"/>
       <c r="Q61" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S61" s="26">
+        <v>1446.3541776702803</v>
+      </c>
+      <c r="T61" s="26">
+        <v>215.29322946231946</v>
+      </c>
+      <c r="U61" s="26">
+        <v>125.26304862687377</v>
+      </c>
+      <c r="V61" s="26">
+        <v>20.157308465844551</v>
+      </c>
+      <c r="W61" s="26">
+        <v>345.3109221865393</v>
+      </c>
+      <c r="X61" s="26">
+        <v>20.807263260961921</v>
+      </c>
+      <c r="Y61" s="26">
+        <v>20.221171998899141</v>
+      </c>
+      <c r="Z61" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>20.157308465844551</v>
+      </c>
+      <c r="AA61" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB61" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="32">
+        <v>1.5524684901915333E-24</v>
+      </c>
+      <c r="AG61" s="32">
+        <v>0.41352737987541877</v>
+      </c>
+      <c r="AH61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="32">
+        <v>0.33614054638102858</v>
+      </c>
+      <c r="AJ61" s="32">
+        <v>0.25033207374355265</v>
+      </c>
+      <c r="AK61" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.41352737987541877</v>
+      </c>
+      <c r="AL61" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM61" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>60</v>
       </c>
@@ -28150,12 +32916,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.8618885506375511</v>
       </c>
-      <c r="P62" s="21"/>
+      <c r="P62" s="36"/>
       <c r="Q62" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S62" s="26">
+        <v>1647.3524655321239</v>
+      </c>
+      <c r="T62" s="26">
+        <v>124.8155451491188</v>
+      </c>
+      <c r="U62" s="26">
+        <v>57.785054874016076</v>
+      </c>
+      <c r="V62" s="26">
+        <v>43.61260431385071</v>
+      </c>
+      <c r="W62" s="26">
+        <v>446.29495874123472</v>
+      </c>
+      <c r="X62" s="26">
+        <v>13.771571196071829</v>
+      </c>
+      <c r="Y62" s="26">
+        <v>54.976831224942948</v>
+      </c>
+      <c r="Z62" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>13.771571196071829</v>
+      </c>
+      <c r="AA62" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB62" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="32">
+        <v>1.713542142547363E-25</v>
+      </c>
+      <c r="AF62" s="32">
+        <v>6.1571652940308519E-11</v>
+      </c>
+      <c r="AG62" s="32">
+        <v>2.9440781950022005E-7</v>
+      </c>
+      <c r="AH62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="32">
+        <v>0.99999970490382351</v>
+      </c>
+      <c r="AJ62" s="32">
+        <v>6.2678535248996102E-10</v>
+      </c>
+      <c r="AK62" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999970490382351</v>
+      </c>
+      <c r="AL62" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM62" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>61</v>
       </c>
@@ -28202,12 +33040,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.0798846808109785</v>
       </c>
-      <c r="P63" s="21"/>
+      <c r="P63" s="36"/>
       <c r="Q63" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S63" s="26">
+        <v>1533.5999828745748</v>
+      </c>
+      <c r="T63" s="26">
+        <v>127.12620636973102</v>
+      </c>
+      <c r="U63" s="26">
+        <v>106.61563659312773</v>
+      </c>
+      <c r="V63" s="26">
+        <v>21.008004436159752</v>
+      </c>
+      <c r="W63" s="26">
+        <v>359.01973719835269</v>
+      </c>
+      <c r="X63" s="26">
+        <v>8.9957226774544257</v>
+      </c>
+      <c r="Y63" s="26">
+        <v>46.534473764722811</v>
+      </c>
+      <c r="Z63" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>8.9957226774544257</v>
+      </c>
+      <c r="AA63" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB63" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD63" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="32">
+        <v>4.9445739910035094E-27</v>
+      </c>
+      <c r="AF63" s="32">
+        <v>1.405861434088409E-22</v>
+      </c>
+      <c r="AG63" s="32">
+        <v>2.1850613543969413E-3</v>
+      </c>
+      <c r="AH63" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="32">
+        <v>0.99781493473412175</v>
+      </c>
+      <c r="AJ63" s="32">
+        <v>3.9114813823325081E-9</v>
+      </c>
+      <c r="AK63" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99781493473412175</v>
+      </c>
+      <c r="AL63" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM63" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>62</v>
       </c>
@@ -28254,14 +33164,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.0923711650137586</v>
       </c>
-      <c r="P64" s="21">
+      <c r="P64" s="36">
         <v>6</v>
       </c>
       <c r="Q64" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S64" s="26">
+        <v>1508.2484949204938</v>
+      </c>
+      <c r="T64" s="26">
+        <v>97.547295069530662</v>
+      </c>
+      <c r="U64" s="26">
+        <v>92.322595979928423</v>
+      </c>
+      <c r="V64" s="26">
+        <v>20.801822792711601</v>
+      </c>
+      <c r="W64" s="26">
+        <v>349.25039065837916</v>
+      </c>
+      <c r="X64" s="26">
+        <v>3.7089938775408036</v>
+      </c>
+      <c r="Y64" s="26">
+        <v>48.40643522164104</v>
+      </c>
+      <c r="Z64" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>3.7089938775408036</v>
+      </c>
+      <c r="AA64" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB64" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC64" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD64" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="32">
+        <v>9.3322058258778217E-22</v>
+      </c>
+      <c r="AF64" s="32">
+        <v>1.2720767086631996E-20</v>
+      </c>
+      <c r="AG64" s="32">
+        <v>1.7262824706098335E-4</v>
+      </c>
+      <c r="AH64" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="32">
+        <v>0.99982737164361213</v>
+      </c>
+      <c r="AJ64" s="32">
+        <v>1.0932675341421269E-10</v>
+      </c>
+      <c r="AK64" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99982737164361213</v>
+      </c>
+      <c r="AL64" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM64" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>10</v>
       </c>
@@ -28308,14 +33290,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>32.064351678043934</v>
       </c>
-      <c r="P65" s="21">
+      <c r="P65" s="36">
         <v>2</v>
       </c>
       <c r="Q65" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="S65" s="26">
+        <v>1473.8572458215413</v>
+      </c>
+      <c r="T65" s="26">
+        <v>8.5318300256938429</v>
+      </c>
+      <c r="U65" s="26">
+        <v>249.64749702973398</v>
+      </c>
+      <c r="V65" s="26">
+        <v>206.04520790809292</v>
+      </c>
+      <c r="W65" s="26">
+        <v>392.33411481534534</v>
+      </c>
+      <c r="X65" s="26">
+        <v>167.51735891384968</v>
+      </c>
+      <c r="Y65" s="26">
+        <v>262.86862290701021</v>
+      </c>
+      <c r="Z65" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>8.5318300256938429</v>
+      </c>
+      <c r="AA65" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB65" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC65" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL65" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AM65" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>64</v>
       </c>
@@ -28362,12 +33416,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.1489525934349309</v>
       </c>
-      <c r="P66" s="21"/>
+      <c r="P66" s="36"/>
       <c r="Q66" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S66" s="26">
+        <v>1651.7642154997197</v>
+      </c>
+      <c r="T66" s="26">
+        <v>123.40369389022491</v>
+      </c>
+      <c r="U66" s="26">
+        <v>72.527916842899714</v>
+      </c>
+      <c r="V66" s="26">
+        <v>51.574941446053089</v>
+      </c>
+      <c r="W66" s="26">
+        <v>450.50526787512621</v>
+      </c>
+      <c r="X66" s="26">
+        <v>23.00994615665633</v>
+      </c>
+      <c r="Y66" s="26">
+        <v>93.453748996754342</v>
+      </c>
+      <c r="Z66" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>23.00994615665633</v>
+      </c>
+      <c r="AA66" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB66" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD66" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="32">
+        <v>3.5201560396192329E-23</v>
+      </c>
+      <c r="AF66" s="32">
+        <v>3.9273221968514395E-12</v>
+      </c>
+      <c r="AG66" s="32">
+        <v>5.5723363218514929E-7</v>
+      </c>
+      <c r="AH66" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="32">
+        <v>0.99999944276244002</v>
+      </c>
+      <c r="AJ66" s="32">
+        <v>2.8057555071361637E-16</v>
+      </c>
+      <c r="AK66" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999944276244002</v>
+      </c>
+      <c r="AL66" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM66" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>65</v>
       </c>
@@ -28414,12 +33540,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>15.672803117354693</v>
       </c>
-      <c r="P67" s="21"/>
+      <c r="P67" s="36"/>
       <c r="Q67" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S67" s="26">
+        <v>1799.4656807023127</v>
+      </c>
+      <c r="T67" s="26">
+        <v>336.82215413109327</v>
+      </c>
+      <c r="U67" s="26">
+        <v>306.26441376028441</v>
+      </c>
+      <c r="V67" s="26">
+        <v>108.83374252160024</v>
+      </c>
+      <c r="W67" s="26">
+        <v>530.40235659917073</v>
+      </c>
+      <c r="X67" s="26">
+        <v>146.8186570745093</v>
+      </c>
+      <c r="Y67" s="26">
+        <v>143.15937931841512</v>
+      </c>
+      <c r="Z67" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>108.83374252160024</v>
+      </c>
+      <c r="AA67" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB67" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="32">
+        <v>0.99999997166229837</v>
+      </c>
+      <c r="AH67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="32">
+        <v>6.3508684530341121E-9</v>
+      </c>
+      <c r="AJ67" s="32">
+        <v>2.1986833148847293E-8</v>
+      </c>
+      <c r="AK67" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999997166229837</v>
+      </c>
+      <c r="AL67" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM67" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>66</v>
       </c>
@@ -28466,12 +33664,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.7417740364451202</v>
       </c>
-      <c r="P68" s="21"/>
+      <c r="P68" s="36"/>
       <c r="Q68" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S68" s="26">
+        <v>1461.6976010229168</v>
+      </c>
+      <c r="T68" s="26">
+        <v>153.58972930860637</v>
+      </c>
+      <c r="U68" s="26">
+        <v>152.0530165042957</v>
+      </c>
+      <c r="V68" s="26">
+        <v>20.964673985429869</v>
+      </c>
+      <c r="W68" s="26">
+        <v>323.94943168018568</v>
+      </c>
+      <c r="X68" s="26">
+        <v>23.262291013766085</v>
+      </c>
+      <c r="Y68" s="26">
+        <v>25.761429497103016</v>
+      </c>
+      <c r="Z68" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>20.964673985429869</v>
+      </c>
+      <c r="AA68" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB68" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="32">
+        <v>2.8086673132290492E-30</v>
+      </c>
+      <c r="AF68" s="32">
+        <v>6.0561028990453013E-30</v>
+      </c>
+      <c r="AG68" s="32">
+        <v>0.70749786861899577</v>
+      </c>
+      <c r="AH68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="32">
+        <v>0.25232277937908654</v>
+      </c>
+      <c r="AJ68" s="32">
+        <v>4.0179352001917752E-2</v>
+      </c>
+      <c r="AK68" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.70749786861899577</v>
+      </c>
+      <c r="AL68" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM68" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>67</v>
       </c>
@@ -28518,12 +33788,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>8.128367755744053</v>
       </c>
-      <c r="P69" s="21"/>
+      <c r="P69" s="36"/>
       <c r="Q69" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S69" s="26">
+        <v>2073.7921500630578</v>
+      </c>
+      <c r="T69" s="26">
+        <v>201.91373252842388</v>
+      </c>
+      <c r="U69" s="26">
+        <v>167.30615401481174</v>
+      </c>
+      <c r="V69" s="26">
+        <v>104.520276692718</v>
+      </c>
+      <c r="W69" s="26">
+        <v>599.85852165466042</v>
+      </c>
+      <c r="X69" s="26">
+        <v>77.832776067145502</v>
+      </c>
+      <c r="Y69" s="26">
+        <v>150.91461646853369</v>
+      </c>
+      <c r="Z69" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>77.832776067145502</v>
+      </c>
+      <c r="AA69" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB69" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="32">
+        <v>2.5290040059601331E-28</v>
+      </c>
+      <c r="AF69" s="32">
+        <v>8.2773192801811676E-21</v>
+      </c>
+      <c r="AG69" s="32">
+        <v>1.4247206861657306E-6</v>
+      </c>
+      <c r="AH69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="32">
+        <v>0.99999857527931391</v>
+      </c>
+      <c r="AJ69" s="32">
+        <v>7.5025149468590785E-17</v>
+      </c>
+      <c r="AK69" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999857527931391</v>
+      </c>
+      <c r="AL69" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM69" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>68</v>
       </c>
@@ -28570,14 +33912,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.5881752244898477</v>
       </c>
-      <c r="P70" s="21">
+      <c r="P70" s="36">
         <v>7</v>
       </c>
       <c r="Q70" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="S70" s="26">
+        <v>1425.1274527144944</v>
+      </c>
+      <c r="T70" s="26">
+        <v>203.31798971804639</v>
+      </c>
+      <c r="U70" s="26">
+        <v>177.48571033280476</v>
+      </c>
+      <c r="V70" s="26">
+        <v>18.066162372148042</v>
+      </c>
+      <c r="W70" s="26">
+        <v>321.03181908281829</v>
+      </c>
+      <c r="X70" s="26">
+        <v>31.854478617841973</v>
+      </c>
+      <c r="Y70" s="26">
+        <v>8.2160863259196812</v>
+      </c>
+      <c r="Z70" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>18.066162372148042</v>
+      </c>
+      <c r="AA70" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB70" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="32">
+        <v>1.1486298136644828E-2</v>
+      </c>
+      <c r="AH70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="32">
+        <v>1.3098988983826415E-5</v>
+      </c>
+      <c r="AJ70" s="32">
+        <v>0.98850060287437136</v>
+      </c>
+      <c r="AK70" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.98850060287437136</v>
+      </c>
+      <c r="AL70" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM70" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>69</v>
       </c>
@@ -28624,12 +34038,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>9.5205337454338803</v>
       </c>
-      <c r="P71" s="21"/>
+      <c r="P71" s="36"/>
       <c r="Q71" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S71" s="26">
+        <v>1812.4027651103929</v>
+      </c>
+      <c r="T71" s="26">
+        <v>206.48705346084776</v>
+      </c>
+      <c r="U71" s="26">
+        <v>126.08448244724765</v>
+      </c>
+      <c r="V71" s="26">
+        <v>92.165323239179557</v>
+      </c>
+      <c r="W71" s="26">
+        <v>498.72298974074732</v>
+      </c>
+      <c r="X71" s="26">
+        <v>58.478457712737764</v>
+      </c>
+      <c r="Y71" s="26">
+        <v>97.267017669754338</v>
+      </c>
+      <c r="Z71" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>58.478457712737764</v>
+      </c>
+      <c r="AA71" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB71" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC71" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD71" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="32">
+        <v>4.6379463845900385E-16</v>
+      </c>
+      <c r="AG71" s="32">
+        <v>4.3036560255007675E-8</v>
+      </c>
+      <c r="AH71" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="32">
+        <v>0.99999995486498894</v>
+      </c>
+      <c r="AJ71" s="32">
+        <v>2.0984503597501355E-9</v>
+      </c>
+      <c r="AK71" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999995486498894</v>
+      </c>
+      <c r="AL71" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM71" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>70</v>
       </c>
@@ -28676,12 +34162,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.759749014360006</v>
       </c>
-      <c r="P72" s="21"/>
+      <c r="P72" s="36"/>
       <c r="Q72" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S72" s="26">
+        <v>1526.1496099899923</v>
+      </c>
+      <c r="T72" s="26">
+        <v>225.71763734133057</v>
+      </c>
+      <c r="U72" s="26">
+        <v>151.19424561535757</v>
+      </c>
+      <c r="V72" s="26">
+        <v>114.47260925461126</v>
+      </c>
+      <c r="W72" s="26">
+        <v>476.23374634962812</v>
+      </c>
+      <c r="X72" s="26">
+        <v>100.64619498552075</v>
+      </c>
+      <c r="Y72" s="26">
+        <v>112.93014199146688</v>
+      </c>
+      <c r="Z72" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>100.64619498552075</v>
+      </c>
+      <c r="AA72" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB72" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD72" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="32">
+        <v>1.5380375899125504E-28</v>
+      </c>
+      <c r="AF72" s="32">
+        <v>2.3416169304061788E-12</v>
+      </c>
+      <c r="AG72" s="32">
+        <v>8.8222195161449487E-4</v>
+      </c>
+      <c r="AH72" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="32">
+        <v>0.9979254372941011</v>
+      </c>
+      <c r="AJ72" s="32">
+        <v>1.192340751942641E-3</v>
+      </c>
+      <c r="AK72" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.9979254372941011</v>
+      </c>
+      <c r="AL72" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM72" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>71</v>
       </c>
@@ -28728,12 +34286,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.9765761239321273</v>
       </c>
-      <c r="P73" s="21"/>
+      <c r="P73" s="36"/>
       <c r="Q73" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S73" s="26">
+        <v>1372.2061291187913</v>
+      </c>
+      <c r="T73" s="26">
+        <v>241.42009552245196</v>
+      </c>
+      <c r="U73" s="26">
+        <v>198.5308819678977</v>
+      </c>
+      <c r="V73" s="26">
+        <v>25.517583191785317</v>
+      </c>
+      <c r="W73" s="26">
+        <v>302.09957728333353</v>
+      </c>
+      <c r="X73" s="26">
+        <v>47.392371144880101</v>
+      </c>
+      <c r="Y73" s="26">
+        <v>12.996769446249802</v>
+      </c>
+      <c r="Z73" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>25.517583191785317</v>
+      </c>
+      <c r="AA73" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB73" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD73" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="32">
+        <v>3.0474338857347126E-3</v>
+      </c>
+      <c r="AH73" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="32">
+        <v>6.0958877934364612E-8</v>
+      </c>
+      <c r="AJ73" s="32">
+        <v>0.99695250515538725</v>
+      </c>
+      <c r="AK73" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99695250515538725</v>
+      </c>
+      <c r="AL73" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM73" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>72</v>
       </c>
@@ -28780,12 +34410,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>15.773996885338644</v>
       </c>
-      <c r="P74" s="21"/>
+      <c r="P74" s="36"/>
       <c r="Q74" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S74" s="26">
+        <v>1090.2931000365379</v>
+      </c>
+      <c r="T74" s="26">
+        <v>108.5323341795816</v>
+      </c>
+      <c r="U74" s="26">
+        <v>284.33246541287753</v>
+      </c>
+      <c r="V74" s="26">
+        <v>144.03983022561519</v>
+      </c>
+      <c r="W74" s="26">
+        <v>220.34571041564072</v>
+      </c>
+      <c r="X74" s="26">
+        <v>138.82678742103087</v>
+      </c>
+      <c r="Y74" s="26">
+        <v>161.82772557241228</v>
+      </c>
+      <c r="Z74" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>108.5323341795816</v>
+      </c>
+      <c r="AA74" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB74" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD74" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="32">
+        <v>0.99999873395776773</v>
+      </c>
+      <c r="AF74" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="32">
+        <v>7.7929993855297763E-8</v>
+      </c>
+      <c r="AH74" s="32">
+        <v>5.2484770078667863E-25</v>
+      </c>
+      <c r="AI74" s="32">
+        <v>1.1881055549635721E-6</v>
+      </c>
+      <c r="AJ74" s="32">
+        <v>6.6833201020831674E-12</v>
+      </c>
+      <c r="AK74" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99999873395776773</v>
+      </c>
+      <c r="AL74" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AM74" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>73</v>
       </c>
@@ -28832,12 +34534,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.8641824298753433</v>
       </c>
-      <c r="P75" s="21"/>
+      <c r="P75" s="36"/>
       <c r="Q75" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S75" s="26">
+        <v>1561.4101419986528</v>
+      </c>
+      <c r="T75" s="26">
+        <v>196.92835598991317</v>
+      </c>
+      <c r="U75" s="26">
+        <v>186.63388862347696</v>
+      </c>
+      <c r="V75" s="26">
+        <v>41.648320848787264</v>
+      </c>
+      <c r="W75" s="26">
+        <v>344.44939321295698</v>
+      </c>
+      <c r="X75" s="26">
+        <v>37.747006201519596</v>
+      </c>
+      <c r="Y75" s="26">
+        <v>41.946750997760596</v>
+      </c>
+      <c r="Z75" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>37.747006201519596</v>
+      </c>
+      <c r="AA75" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB75" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD75" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="32">
+        <v>0.10581072538715969</v>
+      </c>
+      <c r="AH75" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="32">
+        <v>0.83722449446464919</v>
+      </c>
+      <c r="AJ75" s="32">
+        <v>5.6964780148191174E-2</v>
+      </c>
+      <c r="AK75" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.83722449446464919</v>
+      </c>
+      <c r="AL75" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM75" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>74</v>
       </c>
@@ -28884,12 +34658,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>11.745590811997225</v>
       </c>
-      <c r="P76" s="21"/>
+      <c r="P76" s="36"/>
       <c r="Q76" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S76" s="26">
+        <v>1291.9413358303234</v>
+      </c>
+      <c r="T76" s="26">
+        <v>142.76430732761582</v>
+      </c>
+      <c r="U76" s="26">
+        <v>196.9015926512682</v>
+      </c>
+      <c r="V76" s="26">
+        <v>53.74109952930916</v>
+      </c>
+      <c r="W76" s="26">
+        <v>253.91679185331392</v>
+      </c>
+      <c r="X76" s="26">
+        <v>53.139619597721023</v>
+      </c>
+      <c r="Y76" s="26">
+        <v>53.755680274530825</v>
+      </c>
+      <c r="Z76" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>53.139619597721023</v>
+      </c>
+      <c r="AA76" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB76" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD76" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="32">
+        <v>3.7140021625978753E-21</v>
+      </c>
+      <c r="AF76" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="32">
+        <v>0.31845355225824568</v>
+      </c>
+      <c r="AH76" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="32">
+        <v>0.48395872930206407</v>
+      </c>
+      <c r="AJ76" s="32">
+        <v>0.19758771843969031</v>
+      </c>
+      <c r="AK76" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.48395872930206407</v>
+      </c>
+      <c r="AL76" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM76" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>75</v>
       </c>
@@ -28936,14 +34782,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.5278873215998674</v>
       </c>
-      <c r="P77" s="21">
+      <c r="P77" s="36">
         <v>4</v>
       </c>
       <c r="Q77" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S77" s="26">
+        <v>1444.8354519332991</v>
+      </c>
+      <c r="T77" s="26">
+        <v>147.09306999207243</v>
+      </c>
+      <c r="U77" s="26">
+        <v>150.71844436545655</v>
+      </c>
+      <c r="V77" s="26">
+        <v>7.2449221156772952</v>
+      </c>
+      <c r="W77" s="26">
+        <v>322.74159669089636</v>
+      </c>
+      <c r="X77" s="26">
+        <v>20.174481145470523</v>
+      </c>
+      <c r="Y77" s="26">
+        <v>37.380962096709247</v>
+      </c>
+      <c r="Z77" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>7.2449221156772952</v>
+      </c>
+      <c r="AA77" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB77" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC77" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD77" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="32">
+        <v>1.0703855779041276E-31</v>
+      </c>
+      <c r="AF77" s="32">
+        <v>1.7470293706251725E-32</v>
+      </c>
+      <c r="AG77" s="32">
+        <v>0.99825088473386914</v>
+      </c>
+      <c r="AH77" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="32">
+        <v>1.7489369618435414E-3</v>
+      </c>
+      <c r="AJ77" s="32">
+        <v>1.7830428737512094E-7</v>
+      </c>
+      <c r="AK77" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99825088473386914</v>
+      </c>
+      <c r="AL77" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM77" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>76</v>
       </c>
@@ -28990,14 +34908,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.7469602789198322</v>
       </c>
-      <c r="P78" s="21">
+      <c r="P78" s="36">
         <v>6</v>
       </c>
       <c r="Q78" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S78" s="26">
+        <v>1567.6811204282378</v>
+      </c>
+      <c r="T78" s="26">
+        <v>132.25188701694435</v>
+      </c>
+      <c r="U78" s="26">
+        <v>96.187558457330582</v>
+      </c>
+      <c r="V78" s="26">
+        <v>15.212307561538106</v>
+      </c>
+      <c r="W78" s="26">
+        <v>379.2984499588934</v>
+      </c>
+      <c r="X78" s="26">
+        <v>1.654526975870684</v>
+      </c>
+      <c r="Y78" s="26">
+        <v>32.646846277668388</v>
+      </c>
+      <c r="Z78" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>1.654526975870684</v>
+      </c>
+      <c r="AA78" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB78" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC78" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD78" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="32">
+        <v>9.7161032357448205E-30</v>
+      </c>
+      <c r="AF78" s="32">
+        <v>6.5881209565042578E-22</v>
+      </c>
+      <c r="AG78" s="32">
+        <v>1.0101220997633161E-3</v>
+      </c>
+      <c r="AH78" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="32">
+        <v>0.99898977453085669</v>
+      </c>
+      <c r="AJ78" s="32">
+        <v>1.0336937983088154E-7</v>
+      </c>
+      <c r="AK78" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99898977453085669</v>
+      </c>
+      <c r="AL78" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM78" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>77</v>
       </c>
@@ -29044,12 +35034,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.0081067878444201</v>
       </c>
-      <c r="P79" s="21"/>
+      <c r="P79" s="36"/>
       <c r="Q79" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S79" s="26">
+        <v>1224.1968156387866</v>
+      </c>
+      <c r="T79" s="26">
+        <v>161.72818274550946</v>
+      </c>
+      <c r="U79" s="26">
+        <v>274.37206972560455</v>
+      </c>
+      <c r="V79" s="26">
+        <v>40.293841108009211</v>
+      </c>
+      <c r="W79" s="26">
+        <v>183.67205511142456</v>
+      </c>
+      <c r="X79" s="26">
+        <v>65.771803934180483</v>
+      </c>
+      <c r="Y79" s="26">
+        <v>48.37990041016451</v>
+      </c>
+      <c r="Z79" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>40.293841108009211</v>
+      </c>
+      <c r="AA79" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB79" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC79" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD79" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="32">
+        <v>1.0569882575000279E-27</v>
+      </c>
+      <c r="AF79" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="32">
+        <v>0.98915055104939487</v>
+      </c>
+      <c r="AH79" s="32">
+        <v>1.8155943498024057E-32</v>
+      </c>
+      <c r="AI79" s="32">
+        <v>3.2654691632457687E-6</v>
+      </c>
+      <c r="AJ79" s="32">
+        <v>1.084618348144193E-2</v>
+      </c>
+      <c r="AK79" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.98915055104939487</v>
+      </c>
+      <c r="AL79" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM79" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>83</v>
       </c>
@@ -29096,12 +35158,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>35.014671615955351</v>
       </c>
-      <c r="P80" s="21"/>
+      <c r="P80" s="36"/>
       <c r="Q80" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S80" s="26">
+        <v>354.56659838870689</v>
+      </c>
+      <c r="T80" s="26">
+        <v>684.34004145952906</v>
+      </c>
+      <c r="U80" s="26">
+        <v>891.64426339968566</v>
+      </c>
+      <c r="V80" s="26">
+        <v>595.93288036297849</v>
+      </c>
+      <c r="W80" s="26">
+        <v>112.5214037174801</v>
+      </c>
+      <c r="X80" s="26">
+        <v>662.4138313629943</v>
+      </c>
+      <c r="Y80" s="26">
+        <v>573.80007279039228</v>
+      </c>
+      <c r="Z80" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>112.5214037174801</v>
+      </c>
+      <c r="AA80" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AB80" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC80" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD80" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="32">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL80" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="AM80" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>79</v>
       </c>
@@ -29148,14 +35282,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.0193020991836883</v>
       </c>
-      <c r="P81" s="21">
+      <c r="P81" s="36">
         <v>6</v>
       </c>
       <c r="Q81" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="S81" s="26">
+        <v>1503.7896231569302</v>
+      </c>
+      <c r="T81" s="26">
+        <v>148.02052641784411</v>
+      </c>
+      <c r="U81" s="26">
+        <v>122.80479034597903</v>
+      </c>
+      <c r="V81" s="26">
+        <v>7.6616755462935435</v>
+      </c>
+      <c r="W81" s="26">
+        <v>339.34466700873753</v>
+      </c>
+      <c r="X81" s="26">
+        <v>4.4632556745456711</v>
+      </c>
+      <c r="Y81" s="26">
+        <v>23.718192445181799</v>
+      </c>
+      <c r="Z81" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>4.4632556745456711</v>
+      </c>
+      <c r="AA81" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AB81" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC81" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD81" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="32">
+        <v>1.2646547820397612E-32</v>
+      </c>
+      <c r="AF81" s="32">
+        <v>3.7800670830952562E-27</v>
+      </c>
+      <c r="AG81" s="32">
+        <v>0.15225416848547621</v>
+      </c>
+      <c r="AH81" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="32">
+        <v>0.84771479872147271</v>
+      </c>
+      <c r="AJ81" s="32">
+        <v>3.1032793051039691E-5</v>
+      </c>
+      <c r="AK81" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.84771479872147271</v>
+      </c>
+      <c r="AL81" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>6</v>
+      </c>
+      <c r="AM81" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>80</v>
       </c>
@@ -29202,14 +35408,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>26.804785628859786</v>
       </c>
-      <c r="P82" s="21">
+      <c r="P82" s="36">
         <v>3</v>
       </c>
       <c r="Q82" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="S82" s="26">
+        <v>1856.7420697282894</v>
+      </c>
+      <c r="T82" s="26">
+        <v>205.4720063383954</v>
+      </c>
+      <c r="U82" s="26">
+        <v>4.6984752559844045</v>
+      </c>
+      <c r="V82" s="26">
+        <v>183.64739234449647</v>
+      </c>
+      <c r="W82" s="26">
+        <v>671.10809260805206</v>
+      </c>
+      <c r="X82" s="26">
+        <v>115.41151645011998</v>
+      </c>
+      <c r="Y82" s="26">
+        <v>229.51889523605533</v>
+      </c>
+      <c r="Z82" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>4.6984752559844045</v>
+      </c>
+      <c r="AA82" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="AB82" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC82" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD82" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="32">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="32">
+        <v>4.0943133844663885E-24</v>
+      </c>
+      <c r="AJ82" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL82" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="AM82" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>81</v>
       </c>
@@ -29256,12 +35534,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.9595133997503522</v>
       </c>
-      <c r="P83" s="21"/>
+      <c r="P83" s="36"/>
       <c r="Q83" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S83" s="26">
+        <v>1499.1974789843532</v>
+      </c>
+      <c r="T83" s="26">
+        <v>189.13167863277127</v>
+      </c>
+      <c r="U83" s="26">
+        <v>144.82216371360468</v>
+      </c>
+      <c r="V83" s="26">
+        <v>25.872464580838347</v>
+      </c>
+      <c r="W83" s="26">
+        <v>373.54464951117779</v>
+      </c>
+      <c r="X83" s="26">
+        <v>31.571428823329484</v>
+      </c>
+      <c r="Y83" s="26">
+        <v>24.667709067958388</v>
+      </c>
+      <c r="Z83" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>25.872464580838347</v>
+      </c>
+      <c r="AA83" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB83" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC83" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD83" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="32">
+        <v>1.677292395839707E-27</v>
+      </c>
+      <c r="AG83" s="32">
+        <v>0.45317688314239352</v>
+      </c>
+      <c r="AH83" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="32">
+        <v>2.9505699090427082E-2</v>
+      </c>
+      <c r="AJ83" s="32">
+        <v>0.51731741776717954</v>
+      </c>
+      <c r="AK83" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.51731741776717954</v>
+      </c>
+      <c r="AL83" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM83" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>82</v>
       </c>
@@ -29308,14 +35658,86 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>59.563694763421765</v>
       </c>
-      <c r="P84" s="21">
+      <c r="P84" s="36">
         <v>1</v>
       </c>
       <c r="Q84" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="S84" s="26">
+        <v>8.6457621247368959</v>
+      </c>
+      <c r="T84" s="26">
+        <v>1530.0843461279887</v>
+      </c>
+      <c r="U84" s="26">
+        <v>1856.105083234318</v>
+      </c>
+      <c r="V84" s="26">
+        <v>1421.8504274698216</v>
+      </c>
+      <c r="W84" s="26">
+        <v>488.03545316140207</v>
+      </c>
+      <c r="X84" s="26">
+        <v>1549.0731486034149</v>
+      </c>
+      <c r="Y84" s="26">
+        <v>1391.4112693508316</v>
+      </c>
+      <c r="Z84" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>8.6457621247368959</v>
+      </c>
+      <c r="AA84" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB84" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC84" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD84" s="32">
+        <v>1</v>
+      </c>
+      <c r="AE84" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>1</v>
+      </c>
+      <c r="AL84" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AM84" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>78</v>
       </c>
@@ -29362,12 +35784,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>14.144836888784321</v>
       </c>
-      <c r="P85" s="21"/>
+      <c r="P85" s="36"/>
       <c r="Q85" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S85" s="26">
+        <v>1264.6084524882724</v>
+      </c>
+      <c r="T85" s="26">
+        <v>330.20790699794748</v>
+      </c>
+      <c r="U85" s="26">
+        <v>383.52230312151778</v>
+      </c>
+      <c r="V85" s="26">
+        <v>191.8631307043027</v>
+      </c>
+      <c r="W85" s="26">
+        <v>265.88008532565675</v>
+      </c>
+      <c r="X85" s="26">
+        <v>206.02763380377556</v>
+      </c>
+      <c r="Y85" s="26">
+        <v>176.56102619604013</v>
+      </c>
+      <c r="Z85" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>191.8631307043027</v>
+      </c>
+      <c r="AA85" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB85" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC85" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD85" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="32">
+        <v>7.6029052841627759E-4</v>
+      </c>
+      <c r="AH85" s="32">
+        <v>1.6082075962733773E-20</v>
+      </c>
+      <c r="AI85" s="32">
+        <v>7.1837189845016878E-7</v>
+      </c>
+      <c r="AJ85" s="32">
+        <v>0.99923899109968528</v>
+      </c>
+      <c r="AK85" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.99923899109968528</v>
+      </c>
+      <c r="AL85" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="AM85" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>84</v>
       </c>
@@ -29414,12 +35908,84 @@
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.611112720783995</v>
       </c>
-      <c r="P86" s="21"/>
+      <c r="P86" s="36"/>
       <c r="Q86" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="S86" s="26">
+        <v>1462.3671001126177</v>
+      </c>
+      <c r="T86" s="26">
+        <v>193.03838666903636</v>
+      </c>
+      <c r="U86" s="26">
+        <v>233.97096816124591</v>
+      </c>
+      <c r="V86" s="26">
+        <v>36.077180191371042</v>
+      </c>
+      <c r="W86" s="26">
+        <v>289.83938450884892</v>
+      </c>
+      <c r="X86" s="26">
+        <v>50.382690108921842</v>
+      </c>
+      <c r="Y86" s="26">
+        <v>41.60841193368757</v>
+      </c>
+      <c r="Z86" s="27">
+        <f>MIN(Таблица2[[#This Row],[Махал1]:[Махал6]])</f>
+        <v>36.077180191371042</v>
+      </c>
+      <c r="AA86" s="30">
+        <f>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал6]],6,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал7]],7)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AB86" s="47">
+        <f>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC86" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD86" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="32">
+        <v>0.96133845533534179</v>
+      </c>
+      <c r="AH86" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="32">
+        <v>8.4649973930445025E-4</v>
+      </c>
+      <c r="AJ86" s="32">
+        <v>3.7815044925353779E-2</v>
+      </c>
+      <c r="AK86" s="33">
+        <f>MAX(Таблица2[[#This Row],[априор1]:[априор7]])</f>
+        <v>0.96133845533534179</v>
+      </c>
+      <c r="AL86" s="33">
+        <f>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор6]],6,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор7]],7,)))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AM86" s="33">
+        <f>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="15">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Ward])</f>
@@ -29477,13 +36043,30 @@
         <f>SUBTOTAL(109,Таблица2[Расстояние])</f>
         <v>755.99999992232358</v>
       </c>
-      <c r="P87" s="20">
+      <c r="P87" s="38">
         <f>SUBTOTAL(103,Таблица2[обучающая выборка])</f>
         <v>30</v>
       </c>
-      <c r="Q87" s="30">
+      <c r="Q87" s="45">
         <f>(Таблица2[[#Totals],[обучающая выборка]]-1)/Таблица2[[#Totals],[обучающая выборка]]</f>
         <v>0.96666666666666667</v>
+      </c>
+      <c r="R87" s="20"/>
+      <c r="AA87" s="46">
+        <f>Таблица2[[#Totals],[Точность Махал]]/Таблица2[[#Totals],[обучающая выборка]]</f>
+        <v>0.8</v>
+      </c>
+      <c r="AB87" s="10">
+        <f>SUBTOTAL(109,Таблица2[Точность Махал])</f>
+        <v>24</v>
+      </c>
+      <c r="AL87" s="46">
+        <f>Таблица2[[#Totals],[Точность Априор]]/Таблица2[[#Totals],[обучающая выборка]]</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AM87">
+        <f>SUBTOTAL(109,Таблица2[Точность Априор])</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
